--- a/data_materials.xlsx
+++ b/data_materials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="495">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -1485,6 +1485,30 @@
   </si>
   <si>
     <t>AU</t>
+  </si>
+  <si>
+    <t>suplier</t>
+  </si>
+  <si>
+    <t>Rakan Pratama Mandiri</t>
+  </si>
+  <si>
+    <t>Rahayu Teknik</t>
+  </si>
+  <si>
+    <t>Inti Sarana Kreasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT. Gemilang Mahakarya </t>
+  </si>
+  <si>
+    <t>CV. Bintang Jaya</t>
+  </si>
+  <si>
+    <t>Willy Teknhik</t>
+  </si>
+  <si>
+    <t>Centralindo Sealing</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1592,6 +1616,12 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1874,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q227"/>
+  <dimension ref="A1:R227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1887,11 +1917,11 @@
     <col min="4" max="4" width="19.36328125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.36328125" customWidth="1"/>
+    <col min="10" max="11" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1916,35 +1946,38 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -1967,28 +2000,31 @@
         <v>35</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="6">
-        <v>44781.068055555559</v>
+      <c r="I2" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J2" s="6">
         <v>44781.068055555559</v>
       </c>
-      <c r="L2" s="2">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="11">
+      <c r="K2" s="6">
+        <v>44781.068055555559</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="11">
         <v>10.125</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="11">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="11">
         <v>30.375</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="R2" s="12">
         <v>6.75</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>7</v>
@@ -2012,28 +2048,31 @@
         <v>47</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="6">
-        <v>44782.068055555559</v>
+      <c r="I3" s="15" t="s">
+        <v>489</v>
       </c>
       <c r="J3" s="6">
         <v>44782.068055555559</v>
       </c>
-      <c r="L3" s="2">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="11">
+      <c r="K3" s="6">
+        <v>44782.068055555559</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="11">
         <v>9.125</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="11">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="11">
         <v>27.375</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="R3" s="12">
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A22" si="0">A3+1</f>
         <v>8</v>
@@ -2057,28 +2096,31 @@
         <v>52</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="6">
-        <v>44783.068055555559</v>
+      <c r="I4" s="15" t="s">
+        <v>489</v>
       </c>
       <c r="J4" s="6">
         <v>44783.068055555559</v>
       </c>
-      <c r="L4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="11">
+      <c r="K4" s="6">
+        <v>44783.068055555559</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="11">
         <v>10.125</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="11">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="11">
         <v>30.375</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="R4" s="12">
         <v>6.75</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2102,28 +2144,31 @@
         <v>33</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="6">
-        <v>44784.068055555559</v>
+      <c r="I5" s="15" t="s">
+        <v>489</v>
       </c>
       <c r="J5" s="6">
         <v>44784.068055555559</v>
       </c>
-      <c r="L5" s="2">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="11">
+      <c r="K5" s="6">
+        <v>44784.068055555559</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="11">
         <v>14.25</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="11">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="11">
         <v>42.75</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="R5" s="12">
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2147,28 +2192,31 @@
         <v>12</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="6">
-        <v>44785.068055555559</v>
+      <c r="I6" s="15" t="s">
+        <v>489</v>
       </c>
       <c r="J6" s="6">
         <v>44785.068055555559</v>
       </c>
-      <c r="L6" s="2">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="11">
+      <c r="K6" s="6">
+        <v>44785.068055555559</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="11">
         <v>13.625</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="11">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="11">
         <v>40.875</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="R6" s="12">
         <v>9.0833333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2192,28 +2240,31 @@
         <v>62</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="6">
-        <v>44786.068055555559</v>
+      <c r="I7" s="15" t="s">
+        <v>489</v>
       </c>
       <c r="J7" s="6">
         <v>44786.068055555559</v>
       </c>
-      <c r="L7" s="2">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="11">
+      <c r="K7" s="6">
+        <v>44786.068055555559</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="11">
         <v>9.125</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="11">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="11">
         <v>27.375</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2237,28 +2288,31 @@
         <v>17</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="6">
-        <v>44787.068055555559</v>
+      <c r="I8" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J8" s="6">
         <v>44787.068055555559</v>
       </c>
-      <c r="L8" s="2">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="11">
+      <c r="K8" s="6">
+        <v>44787.068055555559</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="11">
         <v>7.375</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="11">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="11">
         <v>22.125</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="R8" s="13">
         <v>4.916666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2282,28 +2336,31 @@
         <v>27</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="6">
-        <v>44788.068055555559</v>
+      <c r="I9" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J9" s="6">
         <v>44788.068055555559</v>
       </c>
-      <c r="L9" s="2">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="11">
+      <c r="K9" s="6">
+        <v>44788.068055555559</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="11">
         <v>7.875</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="11">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="11">
         <v>23.625</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="R9" s="13">
         <v>5.25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2327,28 +2384,31 @@
         <v>11</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="6">
-        <v>44789.068055555559</v>
+      <c r="I10" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J10" s="6">
         <v>44789.068055555559</v>
       </c>
-      <c r="L10" s="2">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="11">
+      <c r="K10" s="6">
+        <v>44789.068055555559</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="11">
         <v>9.375</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="11">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="11">
         <v>28.125</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="R10" s="13">
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2372,28 +2432,31 @@
         <v>43</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="6">
-        <v>44790.068055555559</v>
+      <c r="I11" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J11" s="6">
         <v>44790.068055555559</v>
       </c>
-      <c r="L11" s="2">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="11">
+      <c r="K11" s="6">
+        <v>44790.068055555559</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="11">
         <v>12.75</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="11">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="11">
         <v>38.25</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="R11" s="13">
         <v>8.5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2417,28 +2480,31 @@
         <v>76</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="6">
-        <v>44791.068055555559</v>
+      <c r="I12" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J12" s="6">
         <v>44791.068055555559</v>
       </c>
-      <c r="L12" s="2">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="11">
+      <c r="K12" s="6">
+        <v>44791.068055555559</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="11">
         <v>7.5</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="11">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="11">
         <v>22.5</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="R12" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2462,28 +2528,31 @@
         <v>31</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="6">
-        <v>44792.068055555559</v>
+      <c r="I13" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J13" s="6">
         <v>44792.068055555559</v>
       </c>
-      <c r="L13" s="2">
-        <v>3</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="11">
+      <c r="K13" s="6">
+        <v>44792.068055555559</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="11">
         <v>6.25</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="11">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="11">
         <v>18.75</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="R13" s="13">
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2507,28 +2576,31 @@
         <v>47</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="6">
-        <v>44793.068055555559</v>
+      <c r="I14" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J14" s="6">
         <v>44793.068055555559</v>
       </c>
-      <c r="L14" s="2">
-        <v>3</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="11">
+      <c r="K14" s="6">
+        <v>44793.068055555559</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="11">
         <v>12.125</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="11">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="11">
         <v>36.375</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="R14" s="13">
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2552,28 +2624,31 @@
         <v>25</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="6">
-        <v>44794.068055555559</v>
+      <c r="I15" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J15" s="6">
         <v>44794.068055555559</v>
       </c>
-      <c r="L15" s="2">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="11">
+      <c r="K15" s="6">
+        <v>44794.068055555559</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="11">
         <v>7</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="11">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="11">
         <v>21</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="R15" s="13">
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2597,28 +2672,31 @@
         <v>29</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="6">
-        <v>44795.068055555559</v>
+      <c r="I16" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J16" s="6">
         <v>44795.068055555559</v>
       </c>
-      <c r="L16" s="2">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="11">
+      <c r="K16" s="6">
+        <v>44795.068055555559</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="11">
         <v>15.625</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="11">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="11">
         <v>46.875</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="R16" s="13">
         <v>10.416666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2642,28 +2720,31 @@
         <v>6</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="6">
-        <v>44796.068055555559</v>
+      <c r="I17" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J17" s="6">
         <v>44796.068055555559</v>
       </c>
-      <c r="L17" s="2">
-        <v>3</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="11">
+      <c r="K17" s="6">
+        <v>44796.068055555559</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="11">
         <v>8.5</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="11">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="11">
         <v>25.5</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="R17" s="13">
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2687,28 +2768,31 @@
         <v>59</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="6">
-        <v>44797.068055555559</v>
+      <c r="I18" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J18" s="6">
         <v>44797.068055555559</v>
       </c>
-      <c r="L18" s="2">
-        <v>3</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="11">
+      <c r="K18" s="6">
+        <v>44797.068055555559</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="11">
         <v>14</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="11">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="11">
         <v>42</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="R18" s="13">
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2732,28 +2816,31 @@
         <v>58</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="6">
-        <v>44798.068055555559</v>
+      <c r="I19" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J19" s="6">
         <v>44798.068055555559</v>
       </c>
-      <c r="L19" s="2">
-        <v>3</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="11">
+      <c r="K19" s="6">
+        <v>44798.068055555559</v>
+      </c>
+      <c r="M19" s="2">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="11">
         <v>13.75</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="11">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="11">
         <v>41.25</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="R19" s="13">
         <v>9.1666666666666661</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2777,28 +2864,31 @@
         <v>62</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="6">
-        <v>44799.068055555559</v>
+      <c r="I20" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J20" s="6">
         <v>44799.068055555559</v>
       </c>
-      <c r="L20" s="2">
-        <v>3</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="11">
+      <c r="K20" s="6">
+        <v>44799.068055555559</v>
+      </c>
+      <c r="M20" s="2">
+        <v>3</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="11">
         <v>11.75</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="11">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="11">
         <v>35.25</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="R20" s="13">
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2822,28 +2912,31 @@
         <v>80</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="6">
-        <v>44800.068055555559</v>
+      <c r="I21" s="15" t="s">
+        <v>489</v>
       </c>
       <c r="J21" s="6">
         <v>44800.068055555559</v>
       </c>
-      <c r="L21" s="2">
-        <v>3</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="11">
+      <c r="K21" s="6">
+        <v>44800.068055555559</v>
+      </c>
+      <c r="M21" s="2">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="11">
         <v>6.625</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="11">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="11">
         <v>19.875</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="R21" s="13">
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2867,28 +2960,31 @@
         <v>42</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="6">
-        <v>44801.068055555559</v>
+      <c r="I22" s="15" t="s">
+        <v>489</v>
       </c>
       <c r="J22" s="6">
         <v>44801.068055555559</v>
       </c>
-      <c r="L22" s="2">
-        <v>3</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="11">
+      <c r="K22" s="6">
+        <v>44801.068055555559</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="11">
         <v>11.25</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="11">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="11">
         <v>33.75</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="R22" s="13">
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
@@ -2909,28 +3005,31 @@
         <v>57</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="6">
-        <v>44802.068055555559</v>
+      <c r="I23" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J23" s="6">
         <v>44802.068055555559</v>
       </c>
-      <c r="L23" s="2">
-        <v>3</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="11">
+      <c r="K23" s="6">
+        <v>44802.068055555559</v>
+      </c>
+      <c r="M23" s="2">
+        <v>3</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="11">
         <v>10.75</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="11">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="11">
         <v>32.25</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="R23" s="13">
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
@@ -2951,28 +3050,31 @@
         <v>18</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="6">
-        <v>44803.068055555559</v>
+      <c r="I24" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J24" s="6">
         <v>44803.068055555559</v>
       </c>
-      <c r="L24" s="2">
-        <v>3</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="11">
+      <c r="K24" s="6">
+        <v>44803.068055555559</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="11">
         <v>6.25</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="11">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="11">
         <v>18.75</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="R24" s="13">
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
@@ -2993,28 +3095,31 @@
         <v>72</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="6">
-        <v>44804.068055555559</v>
+      <c r="I25" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J25" s="6">
         <v>44804.068055555559</v>
       </c>
-      <c r="L25" s="2">
-        <v>3</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="11">
+      <c r="K25" s="6">
+        <v>44804.068055555559</v>
+      </c>
+      <c r="M25" s="2">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="11">
         <v>7.25</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="11">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="11">
         <v>21.75</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="R25" s="13">
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -3035,28 +3140,31 @@
         <v>77</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="6">
-        <v>44805.068055555559</v>
+      <c r="I26" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J26" s="6">
         <v>44805.068055555559</v>
       </c>
-      <c r="L26" s="2">
-        <v>3</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="11">
+      <c r="K26" s="6">
+        <v>44805.068055555559</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="11">
         <v>12</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="11">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="11">
         <v>36</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="R26" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
@@ -3077,28 +3185,31 @@
         <v>75</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="6">
-        <v>44806.068055555559</v>
+      <c r="I27" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J27" s="6">
         <v>44806.068055555559</v>
       </c>
-      <c r="L27" s="2">
-        <v>3</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="11">
+      <c r="K27" s="6">
+        <v>44806.068055555559</v>
+      </c>
+      <c r="M27" s="2">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="11">
         <v>8.75</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="11">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="11">
         <v>26.25</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="R27" s="13">
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
@@ -3119,28 +3230,31 @@
         <v>44</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="6">
-        <v>44807.068055555559</v>
+      <c r="I28" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J28" s="6">
         <v>44807.068055555559</v>
       </c>
-      <c r="L28" s="2">
+      <c r="K28" s="6">
+        <v>44807.068055555559</v>
+      </c>
+      <c r="M28" s="2">
         <v>5</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="11">
+      <c r="N28" s="1"/>
+      <c r="O28" s="11">
         <v>16.875</v>
       </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="11">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="11">
         <v>50.625</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="R28" s="13">
         <v>6.75</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
@@ -3161,28 +3275,31 @@
         <v>64</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="6">
-        <v>44808.068055555559</v>
+      <c r="I29" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J29" s="6">
         <v>44808.068055555559</v>
       </c>
-      <c r="L29" s="2">
+      <c r="K29" s="6">
+        <v>44808.068055555559</v>
+      </c>
+      <c r="M29" s="2">
         <v>5</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="11">
+      <c r="N29" s="1"/>
+      <c r="O29" s="11">
         <v>17.083333333333332</v>
       </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="11">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="11">
         <v>51.25</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="R29" s="13">
         <v>6.833333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
@@ -3203,28 +3320,31 @@
         <v>57</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="6">
-        <v>44809.068055555559</v>
+      <c r="I30" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J30" s="6">
         <v>44809.068055555559</v>
       </c>
-      <c r="L30" s="2">
+      <c r="K30" s="6">
+        <v>44809.068055555559</v>
+      </c>
+      <c r="M30" s="2">
         <v>5</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="11">
+      <c r="N30" s="1"/>
+      <c r="O30" s="11">
         <v>19.791666666666668</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="11">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="11">
         <v>59.375</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="R30" s="13">
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
@@ -3245,28 +3365,31 @@
         <v>77</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="6">
-        <v>44810.068055555559</v>
+      <c r="I31" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J31" s="6">
         <v>44810.068055555559</v>
       </c>
-      <c r="L31" s="2">
+      <c r="K31" s="6">
+        <v>44810.068055555559</v>
+      </c>
+      <c r="M31" s="2">
         <v>5</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="11">
+      <c r="N31" s="1"/>
+      <c r="O31" s="11">
         <v>20.208333333333336</v>
       </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="11">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="11">
         <v>60.625000000000007</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="R31" s="13">
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
@@ -3287,28 +3410,31 @@
         <v>48</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="6">
-        <v>44811.068055555559</v>
+      <c r="I32" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J32" s="6">
         <v>44811.068055555559</v>
       </c>
-      <c r="L32" s="2">
+      <c r="K32" s="6">
+        <v>44811.068055555559</v>
+      </c>
+      <c r="M32" s="2">
         <v>5</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="11">
+      <c r="N32" s="1"/>
+      <c r="O32" s="11">
         <v>16.875</v>
       </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="11">
+      <c r="P32" s="1"/>
+      <c r="Q32" s="11">
         <v>50.625</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="R32" s="13">
         <v>6.75</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
@@ -3329,28 +3455,31 @@
         <v>13</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="6">
-        <v>44812.068055555559</v>
+      <c r="I33" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J33" s="6">
         <v>44812.068055555559</v>
       </c>
-      <c r="L33" s="2">
+      <c r="K33" s="6">
+        <v>44812.068055555559</v>
+      </c>
+      <c r="M33" s="2">
         <v>5</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="11">
+      <c r="N33" s="1"/>
+      <c r="O33" s="11">
         <v>12.291666666666668</v>
       </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="11">
+      <c r="P33" s="1"/>
+      <c r="Q33" s="11">
         <v>36.875</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="R33" s="13">
         <v>4.916666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
@@ -3371,28 +3500,31 @@
         <v>15</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="6">
-        <v>44813.068055555559</v>
+      <c r="I34" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J34" s="6">
         <v>44813.068055555559</v>
       </c>
-      <c r="L34" s="2">
+      <c r="K34" s="6">
+        <v>44813.068055555559</v>
+      </c>
+      <c r="M34" s="2">
         <v>5</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="11">
+      <c r="N34" s="1"/>
+      <c r="O34" s="11">
         <v>16.25</v>
       </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="11">
+      <c r="P34" s="1"/>
+      <c r="Q34" s="11">
         <v>48.75</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="R34" s="13">
         <v>6.5</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
@@ -3413,28 +3545,31 @@
         <v>72</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="6">
-        <v>44814.068055555559</v>
+      <c r="I35" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J35" s="6">
         <v>44814.068055555559</v>
       </c>
-      <c r="L35" s="2">
+      <c r="K35" s="6">
+        <v>44814.068055555559</v>
+      </c>
+      <c r="M35" s="2">
         <v>5</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="11">
+      <c r="N35" s="1"/>
+      <c r="O35" s="11">
         <v>19.166666666666668</v>
       </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="11">
+      <c r="P35" s="1"/>
+      <c r="Q35" s="11">
         <v>57.5</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="R35" s="13">
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
@@ -3455,28 +3590,31 @@
         <v>80</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="6">
-        <v>44815.068055555559</v>
+      <c r="I36" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J36" s="6">
         <v>44815.068055555559</v>
       </c>
-      <c r="L36" s="2">
+      <c r="K36" s="6">
+        <v>44815.068055555559</v>
+      </c>
+      <c r="M36" s="2">
         <v>5</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="11">
+      <c r="N36" s="1"/>
+      <c r="O36" s="11">
         <v>22.083333333333336</v>
       </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="11">
+      <c r="P36" s="1"/>
+      <c r="Q36" s="11">
         <v>66.25</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="R36" s="13">
         <v>8.8333333333333339</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>45</v>
@@ -3497,28 +3635,31 @@
         <v>54</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="6">
-        <v>44816.068055555559</v>
+      <c r="I37" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J37" s="6">
         <v>44816.068055555559</v>
       </c>
-      <c r="L37" s="2">
+      <c r="K37" s="6">
+        <v>44816.068055555559</v>
+      </c>
+      <c r="M37" s="2">
         <v>5</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="11">
+      <c r="N37" s="1"/>
+      <c r="O37" s="11">
         <v>16.666666666666668</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="11">
+      <c r="P37" s="1"/>
+      <c r="Q37" s="11">
         <v>50</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="R37" s="13">
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>46</v>
@@ -3539,28 +3680,31 @@
         <v>32</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="6">
-        <v>44817.068055555559</v>
+      <c r="I38" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J38" s="6">
         <v>44817.068055555559</v>
       </c>
-      <c r="L38" s="2">
+      <c r="K38" s="6">
+        <v>44817.068055555559</v>
+      </c>
+      <c r="M38" s="2">
         <v>5</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="11">
+      <c r="N38" s="1"/>
+      <c r="O38" s="11">
         <v>12.291666666666668</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="11">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="11">
         <v>36.875</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="R38" s="13">
         <v>4.916666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
@@ -3581,28 +3725,31 @@
         <v>13</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="6">
-        <v>44818.068055555559</v>
+      <c r="I39" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J39" s="6">
         <v>44818.068055555559</v>
       </c>
-      <c r="L39" s="2">
+      <c r="K39" s="6">
+        <v>44818.068055555559</v>
+      </c>
+      <c r="M39" s="2">
         <v>5</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="11">
+      <c r="N39" s="1"/>
+      <c r="O39" s="11">
         <v>14.791666666666668</v>
       </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="11">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="11">
         <v>44.375</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="R39" s="13">
         <v>5.916666666666667</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>48</v>
@@ -3623,28 +3770,31 @@
         <v>53</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="6">
-        <v>44819.068055555559</v>
+      <c r="I40" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J40" s="6">
         <v>44819.068055555559</v>
       </c>
-      <c r="L40" s="2">
+      <c r="K40" s="6">
+        <v>44819.068055555559</v>
+      </c>
+      <c r="M40" s="2">
         <v>5</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="11">
+      <c r="N40" s="1"/>
+      <c r="O40" s="11">
         <v>10.416666666666668</v>
       </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="11">
+      <c r="P40" s="1"/>
+      <c r="Q40" s="11">
         <v>31.250000000000004</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="R40" s="13">
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
         <v>49</v>
@@ -3665,28 +3815,31 @@
         <v>12</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="6">
-        <v>44820.068055555559</v>
+      <c r="I41" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J41" s="6">
         <v>44820.068055555559</v>
       </c>
-      <c r="L41" s="2">
+      <c r="K41" s="6">
+        <v>44820.068055555559</v>
+      </c>
+      <c r="M41" s="2">
         <v>5</v>
       </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="11">
+      <c r="N41" s="1"/>
+      <c r="O41" s="11">
         <v>19.583333333333332</v>
       </c>
-      <c r="O41" s="1"/>
-      <c r="P41" s="11">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="11">
         <v>58.75</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="R41" s="13">
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>50</v>
@@ -3707,28 +3860,31 @@
         <v>32</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="6">
-        <v>44821.068055555559</v>
+      <c r="I42" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J42" s="6">
         <v>44821.068055555559</v>
       </c>
-      <c r="L42" s="2">
+      <c r="K42" s="6">
+        <v>44821.068055555559</v>
+      </c>
+      <c r="M42" s="2">
         <v>5</v>
       </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="11">
+      <c r="N42" s="1"/>
+      <c r="O42" s="11">
         <v>14.583333333333332</v>
       </c>
-      <c r="O42" s="1"/>
-      <c r="P42" s="11">
+      <c r="P42" s="1"/>
+      <c r="Q42" s="11">
         <v>43.75</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="R42" s="13">
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
         <v>51</v>
@@ -3749,28 +3905,31 @@
         <v>43</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="6">
-        <v>44822.068055555559</v>
+      <c r="I43" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J43" s="6">
         <v>44822.068055555559</v>
       </c>
-      <c r="L43" s="2">
+      <c r="K43" s="6">
+        <v>44822.068055555559</v>
+      </c>
+      <c r="M43" s="2">
         <v>5</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="11">
+      <c r="N43" s="1"/>
+      <c r="O43" s="11">
         <v>18.958333333333332</v>
       </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="11">
+      <c r="P43" s="1"/>
+      <c r="Q43" s="11">
         <v>56.875</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="R43" s="13">
         <v>7.583333333333333</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>52</v>
@@ -3791,28 +3950,31 @@
         <v>70</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="6">
-        <v>44823.068055555559</v>
+      <c r="I44" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J44" s="6">
         <v>44823.068055555559</v>
       </c>
-      <c r="L44" s="2">
+      <c r="K44" s="6">
+        <v>44823.068055555559</v>
+      </c>
+      <c r="M44" s="2">
         <v>5</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="11">
+      <c r="N44" s="1"/>
+      <c r="O44" s="11">
         <v>21.25</v>
       </c>
-      <c r="O44" s="1"/>
-      <c r="P44" s="11">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="11">
         <v>63.75</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="R44" s="13">
         <v>8.5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>51</v>
@@ -3833,28 +3995,31 @@
         <v>60</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="6">
-        <v>44824.068055555559</v>
+      <c r="I45" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J45" s="6">
         <v>44824.068055555559</v>
       </c>
-      <c r="L45" s="2">
+      <c r="K45" s="6">
+        <v>44824.068055555559</v>
+      </c>
+      <c r="M45" s="2">
         <v>5</v>
       </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="11">
+      <c r="N45" s="1"/>
+      <c r="O45" s="11">
         <v>19.791666666666668</v>
       </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="11">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="11">
         <v>59.375</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="R45" s="13">
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>53</v>
@@ -3875,28 +4040,31 @@
         <v>72</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="6">
-        <v>44825.068055555559</v>
+      <c r="I46" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J46" s="6">
         <v>44825.068055555559</v>
       </c>
-      <c r="L46" s="2">
+      <c r="K46" s="6">
+        <v>44825.068055555559</v>
+      </c>
+      <c r="M46" s="2">
         <v>5</v>
       </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="11">
+      <c r="N46" s="1"/>
+      <c r="O46" s="11">
         <v>25.416666666666664</v>
       </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="11">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="11">
         <v>76.25</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="R46" s="13">
         <v>10.166666666666666</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>54</v>
@@ -3917,28 +4085,31 @@
         <v>43</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="6">
-        <v>44826.068055555559</v>
+      <c r="I47" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J47" s="6">
         <v>44826.068055555559</v>
       </c>
-      <c r="L47" s="2">
+      <c r="K47" s="6">
+        <v>44826.068055555559</v>
+      </c>
+      <c r="M47" s="2">
         <v>5</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="11">
+      <c r="N47" s="1"/>
+      <c r="O47" s="11">
         <v>12.5</v>
       </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="11">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="11">
         <v>37.5</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="R47" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>55</v>
@@ -3959,28 +4130,31 @@
         <v>76</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="6">
-        <v>44827.068055555559</v>
+      <c r="I48" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J48" s="6">
         <v>44827.068055555559</v>
       </c>
-      <c r="L48" s="2">
+      <c r="K48" s="6">
+        <v>44827.068055555559</v>
+      </c>
+      <c r="M48" s="2">
         <v>5</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="11">
+      <c r="N48" s="1"/>
+      <c r="O48" s="11">
         <v>12.708333333333332</v>
       </c>
-      <c r="O48" s="1"/>
-      <c r="P48" s="11">
+      <c r="P48" s="1"/>
+      <c r="Q48" s="11">
         <v>38.125</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="R48" s="13">
         <v>5.083333333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>56</v>
@@ -4001,28 +4175,31 @@
         <v>33</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="6">
-        <v>44828.068055555559</v>
+      <c r="I49" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J49" s="6">
         <v>44828.068055555559</v>
       </c>
-      <c r="L49" s="2">
+      <c r="K49" s="6">
+        <v>44828.068055555559</v>
+      </c>
+      <c r="M49" s="2">
         <v>5</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="11">
+      <c r="N49" s="1"/>
+      <c r="O49" s="11">
         <v>21.041666666666664</v>
       </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="11">
+      <c r="P49" s="1"/>
+      <c r="Q49" s="11">
         <v>63.124999999999993</v>
       </c>
-      <c r="Q49" s="13">
+      <c r="R49" s="13">
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>57</v>
@@ -4043,28 +4220,31 @@
         <v>43</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="6">
-        <v>44829.068055555559</v>
+      <c r="I50" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J50" s="6">
         <v>44829.068055555559</v>
       </c>
-      <c r="L50" s="2">
+      <c r="K50" s="6">
+        <v>44829.068055555559</v>
+      </c>
+      <c r="M50" s="2">
         <v>5</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="11">
+      <c r="N50" s="1"/>
+      <c r="O50" s="11">
         <v>21.041666666666664</v>
       </c>
-      <c r="O50" s="1"/>
-      <c r="P50" s="11">
+      <c r="P50" s="1"/>
+      <c r="Q50" s="11">
         <v>63.124999999999993</v>
       </c>
-      <c r="Q50" s="13">
+      <c r="R50" s="13">
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>58</v>
@@ -4085,28 +4265,31 @@
         <v>35</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="6">
-        <v>44830.068055555559</v>
+      <c r="I51" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J51" s="6">
         <v>44830.068055555559</v>
       </c>
-      <c r="L51" s="2">
+      <c r="K51" s="6">
+        <v>44830.068055555559</v>
+      </c>
+      <c r="M51" s="2">
         <v>5</v>
       </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="11">
+      <c r="N51" s="1"/>
+      <c r="O51" s="11">
         <v>23.333333333333336</v>
       </c>
-      <c r="O51" s="1"/>
-      <c r="P51" s="11">
+      <c r="P51" s="1"/>
+      <c r="Q51" s="11">
         <v>70</v>
       </c>
-      <c r="Q51" s="13">
+      <c r="R51" s="13">
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>59</v>
@@ -4127,28 +4310,31 @@
         <v>39</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="6">
-        <v>44831.068055555559</v>
+      <c r="I52" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J52" s="6">
         <v>44831.068055555559</v>
       </c>
-      <c r="L52" s="2">
+      <c r="K52" s="6">
+        <v>44831.068055555559</v>
+      </c>
+      <c r="M52" s="2">
         <v>5</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="11">
+      <c r="N52" s="1"/>
+      <c r="O52" s="11">
         <v>23.958333333333336</v>
       </c>
-      <c r="O52" s="1"/>
-      <c r="P52" s="11">
+      <c r="P52" s="1"/>
+      <c r="Q52" s="11">
         <v>71.875</v>
       </c>
-      <c r="Q52" s="13">
+      <c r="R52" s="13">
         <v>9.5833333333333339</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
         <v>60</v>
@@ -4169,28 +4355,31 @@
         <v>71</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="6">
-        <v>44832.068055555559</v>
+      <c r="I53" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J53" s="6">
         <v>44832.068055555559</v>
       </c>
-      <c r="L53" s="2">
+      <c r="K53" s="6">
+        <v>44832.068055555559</v>
+      </c>
+      <c r="M53" s="2">
         <v>5</v>
       </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="11">
+      <c r="N53" s="1"/>
+      <c r="O53" s="11">
         <v>23.75</v>
       </c>
-      <c r="O53" s="1"/>
-      <c r="P53" s="11">
+      <c r="P53" s="1"/>
+      <c r="Q53" s="11">
         <v>71.25</v>
       </c>
-      <c r="Q53" s="13">
+      <c r="R53" s="13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -4211,28 +4400,31 @@
         <v>6</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="6">
-        <v>44833.068055555559</v>
+      <c r="I54" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J54" s="6">
         <v>44833.068055555559</v>
       </c>
-      <c r="L54" s="2">
+      <c r="K54" s="6">
+        <v>44833.068055555559</v>
+      </c>
+      <c r="M54" s="2">
         <v>5</v>
       </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="11">
+      <c r="N54" s="1"/>
+      <c r="O54" s="11">
         <v>14.791666666666668</v>
       </c>
-      <c r="O54" s="1"/>
-      <c r="P54" s="11">
+      <c r="P54" s="1"/>
+      <c r="Q54" s="11">
         <v>44.375</v>
       </c>
-      <c r="Q54" s="13">
+      <c r="R54" s="13">
         <v>5.916666666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
@@ -4253,28 +4445,31 @@
         <v>14</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="6">
-        <v>44834.068055555559</v>
+      <c r="I55" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J55" s="6">
         <v>44834.068055555559</v>
       </c>
-      <c r="L55" s="2">
+      <c r="K55" s="6">
+        <v>44834.068055555559</v>
+      </c>
+      <c r="M55" s="2">
         <v>5</v>
       </c>
-      <c r="M55" s="1"/>
-      <c r="N55" s="11">
+      <c r="N55" s="1"/>
+      <c r="O55" s="11">
         <v>25.625</v>
       </c>
-      <c r="O55" s="1"/>
-      <c r="P55" s="11">
+      <c r="P55" s="1"/>
+      <c r="Q55" s="11">
         <v>76.875</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="R55" s="13">
         <v>10.25</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
         <v>63</v>
@@ -4295,28 +4490,31 @@
         <v>64</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="6">
-        <v>44835.068055555559</v>
+      <c r="I56" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J56" s="6">
         <v>44835.068055555559</v>
       </c>
-      <c r="L56" s="2">
+      <c r="K56" s="6">
+        <v>44835.068055555559</v>
+      </c>
+      <c r="M56" s="2">
         <v>5</v>
       </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="11">
+      <c r="N56" s="1"/>
+      <c r="O56" s="11">
         <v>20.625</v>
       </c>
-      <c r="O56" s="1"/>
-      <c r="P56" s="11">
+      <c r="P56" s="1"/>
+      <c r="Q56" s="11">
         <v>61.875</v>
       </c>
-      <c r="Q56" s="13">
+      <c r="R56" s="13">
         <v>8.25</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
         <v>64</v>
@@ -4337,28 +4535,31 @@
         <v>3</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="6">
-        <v>44836.068055555559</v>
+      <c r="I57" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J57" s="6">
         <v>44836.068055555559</v>
       </c>
-      <c r="L57" s="2">
+      <c r="K57" s="6">
+        <v>44836.068055555559</v>
+      </c>
+      <c r="M57" s="2">
         <v>5</v>
       </c>
-      <c r="M57" s="1"/>
-      <c r="N57" s="11">
+      <c r="N57" s="1"/>
+      <c r="O57" s="11">
         <v>23.958333333333336</v>
       </c>
-      <c r="O57" s="1"/>
-      <c r="P57" s="11">
+      <c r="P57" s="1"/>
+      <c r="Q57" s="11">
         <v>71.875</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="R57" s="13">
         <v>9.5833333333333339</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>65</v>
@@ -4379,28 +4580,31 @@
         <v>15</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="6">
-        <v>44837.068055555559</v>
+      <c r="I58" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J58" s="6">
         <v>44837.068055555559</v>
       </c>
-      <c r="L58" s="2">
+      <c r="K58" s="6">
+        <v>44837.068055555559</v>
+      </c>
+      <c r="M58" s="2">
         <v>5</v>
       </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="11">
+      <c r="N58" s="1"/>
+      <c r="O58" s="11">
         <v>21.666666666666664</v>
       </c>
-      <c r="O58" s="1"/>
-      <c r="P58" s="11">
+      <c r="P58" s="1"/>
+      <c r="Q58" s="11">
         <v>65</v>
       </c>
-      <c r="Q58" s="13">
+      <c r="R58" s="13">
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
         <v>66</v>
@@ -4421,28 +4625,31 @@
         <v>46</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="6">
-        <v>44838.068055555559</v>
+      <c r="I59" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J59" s="6">
         <v>44838.068055555559</v>
       </c>
-      <c r="L59" s="2">
+      <c r="K59" s="6">
+        <v>44838.068055555559</v>
+      </c>
+      <c r="M59" s="2">
         <v>5</v>
       </c>
-      <c r="M59" s="1"/>
-      <c r="N59" s="11">
+      <c r="N59" s="1"/>
+      <c r="O59" s="11">
         <v>13.125</v>
       </c>
-      <c r="O59" s="1"/>
-      <c r="P59" s="11">
+      <c r="P59" s="1"/>
+      <c r="Q59" s="11">
         <v>39.375</v>
       </c>
-      <c r="Q59" s="13">
+      <c r="R59" s="13">
         <v>5.25</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>67</v>
@@ -4463,28 +4670,31 @@
         <v>62</v>
       </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="6">
-        <v>44839.068055555559</v>
+      <c r="I60" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J60" s="6">
         <v>44839.068055555559</v>
       </c>
-      <c r="L60" s="2">
+      <c r="K60" s="6">
+        <v>44839.068055555559</v>
+      </c>
+      <c r="M60" s="2">
         <v>5</v>
       </c>
-      <c r="M60" s="1"/>
-      <c r="N60" s="11">
+      <c r="N60" s="1"/>
+      <c r="O60" s="11">
         <v>26.041666666666664</v>
       </c>
-      <c r="O60" s="1"/>
-      <c r="P60" s="11">
+      <c r="P60" s="1"/>
+      <c r="Q60" s="11">
         <v>78.125</v>
       </c>
-      <c r="Q60" s="13">
+      <c r="R60" s="13">
         <v>10.416666666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
         <v>68</v>
@@ -4505,28 +4715,31 @@
         <v>34</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="6">
-        <v>44840.068055555559</v>
+      <c r="I61" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J61" s="6">
         <v>44840.068055555559</v>
       </c>
-      <c r="L61" s="2">
+      <c r="K61" s="6">
+        <v>44840.068055555559</v>
+      </c>
+      <c r="M61" s="2">
         <v>5</v>
       </c>
-      <c r="M61" s="1"/>
-      <c r="N61" s="11">
+      <c r="N61" s="1"/>
+      <c r="O61" s="11">
         <v>25.833333333333336</v>
       </c>
-      <c r="O61" s="1"/>
-      <c r="P61" s="11">
+      <c r="P61" s="1"/>
+      <c r="Q61" s="11">
         <v>77.5</v>
       </c>
-      <c r="Q61" s="13">
+      <c r="R61" s="13">
         <v>10.333333333333334</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>69</v>
@@ -4547,28 +4760,31 @@
         <v>22</v>
       </c>
       <c r="H62" s="1"/>
-      <c r="I62" s="6">
-        <v>44841.068055555559</v>
+      <c r="I62" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J62" s="6">
         <v>44841.068055555559</v>
       </c>
-      <c r="L62" s="2">
+      <c r="K62" s="6">
+        <v>44841.068055555559</v>
+      </c>
+      <c r="M62" s="2">
         <v>5</v>
       </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="11">
+      <c r="N62" s="1"/>
+      <c r="O62" s="11">
         <v>16.25</v>
       </c>
-      <c r="O62" s="1"/>
-      <c r="P62" s="11">
+      <c r="P62" s="1"/>
+      <c r="Q62" s="11">
         <v>48.75</v>
       </c>
-      <c r="Q62" s="13">
+      <c r="R62" s="13">
         <v>6.5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>70</v>
@@ -4589,28 +4805,31 @@
         <v>27</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="6">
-        <v>44842.068055555559</v>
+      <c r="I63" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J63" s="6">
         <v>44842.068055555559</v>
       </c>
-      <c r="L63" s="2">
+      <c r="K63" s="6">
+        <v>44842.068055555559</v>
+      </c>
+      <c r="M63" s="2">
         <v>5</v>
       </c>
-      <c r="M63" s="1"/>
-      <c r="N63" s="11">
+      <c r="N63" s="1"/>
+      <c r="O63" s="11">
         <v>12.291666666666668</v>
       </c>
-      <c r="O63" s="1"/>
-      <c r="P63" s="11">
+      <c r="P63" s="1"/>
+      <c r="Q63" s="11">
         <v>36.875</v>
       </c>
-      <c r="Q63" s="13">
+      <c r="R63" s="13">
         <v>4.916666666666667</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>71</v>
@@ -4631,28 +4850,31 @@
         <v>42</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="6">
-        <v>44843.068055555559</v>
+      <c r="I64" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J64" s="6">
         <v>44843.068055555559</v>
       </c>
-      <c r="L64" s="2">
+      <c r="K64" s="6">
+        <v>44843.068055555559</v>
+      </c>
+      <c r="M64" s="2">
         <v>5</v>
       </c>
-      <c r="M64" s="1"/>
-      <c r="N64" s="11">
+      <c r="N64" s="1"/>
+      <c r="O64" s="11">
         <v>19.791666666666668</v>
       </c>
-      <c r="O64" s="1"/>
-      <c r="P64" s="11">
+      <c r="P64" s="1"/>
+      <c r="Q64" s="11">
         <v>59.375</v>
       </c>
-      <c r="Q64" s="13">
+      <c r="R64" s="13">
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>72</v>
@@ -4673,28 +4895,31 @@
         <v>14</v>
       </c>
       <c r="H65" s="1"/>
-      <c r="I65" s="6">
-        <v>44844.068055555559</v>
+      <c r="I65" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J65" s="6">
         <v>44844.068055555559</v>
       </c>
-      <c r="L65" s="2">
+      <c r="K65" s="6">
+        <v>44844.068055555559</v>
+      </c>
+      <c r="M65" s="2">
         <v>5</v>
       </c>
-      <c r="M65" s="1"/>
-      <c r="N65" s="11">
+      <c r="N65" s="1"/>
+      <c r="O65" s="11">
         <v>25.625</v>
       </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="11">
+      <c r="P65" s="1"/>
+      <c r="Q65" s="11">
         <v>76.875</v>
       </c>
-      <c r="Q65" s="13">
+      <c r="R65" s="13">
         <v>10.25</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>73</v>
@@ -4715,28 +4940,31 @@
         <v>47</v>
       </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="6">
-        <v>44845.068055555559</v>
+      <c r="I66" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J66" s="6">
         <v>44845.068055555559</v>
       </c>
-      <c r="L66" s="2">
+      <c r="K66" s="6">
+        <v>44845.068055555559</v>
+      </c>
+      <c r="M66" s="2">
         <v>5</v>
       </c>
-      <c r="M66" s="1"/>
-      <c r="N66" s="11">
+      <c r="N66" s="1"/>
+      <c r="O66" s="11">
         <v>18.125</v>
       </c>
-      <c r="O66" s="1"/>
-      <c r="P66" s="11">
+      <c r="P66" s="1"/>
+      <c r="Q66" s="11">
         <v>54.375</v>
       </c>
-      <c r="Q66" s="13">
+      <c r="R66" s="13">
         <v>7.25</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
         <v>74</v>
@@ -4757,28 +4985,31 @@
         <v>79</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="6">
-        <v>44846.068055555559</v>
+      <c r="I67" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J67" s="6">
         <v>44846.068055555559</v>
       </c>
-      <c r="L67" s="2">
+      <c r="K67" s="6">
+        <v>44846.068055555559</v>
+      </c>
+      <c r="M67" s="2">
         <v>5</v>
       </c>
-      <c r="M67" s="1"/>
-      <c r="N67" s="11">
+      <c r="N67" s="1"/>
+      <c r="O67" s="11">
         <v>19.375</v>
       </c>
-      <c r="O67" s="1"/>
-      <c r="P67" s="11">
+      <c r="P67" s="1"/>
+      <c r="Q67" s="11">
         <v>58.125</v>
       </c>
-      <c r="Q67" s="13">
+      <c r="R67" s="13">
         <v>7.75</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>75</v>
@@ -4799,28 +5030,31 @@
         <v>65</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="6">
-        <v>44847.068055555559</v>
+      <c r="I68" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J68" s="6">
         <v>44847.068055555559</v>
       </c>
-      <c r="L68" s="2">
+      <c r="K68" s="6">
+        <v>44847.068055555559</v>
+      </c>
+      <c r="M68" s="2">
         <v>5</v>
       </c>
-      <c r="M68" s="1"/>
-      <c r="N68" s="11">
+      <c r="N68" s="1"/>
+      <c r="O68" s="11">
         <v>16.458333333333332</v>
       </c>
-      <c r="O68" s="1"/>
-      <c r="P68" s="11">
+      <c r="P68" s="1"/>
+      <c r="Q68" s="11">
         <v>49.375</v>
       </c>
-      <c r="Q68" s="13">
+      <c r="R68" s="13">
         <v>6.583333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>76</v>
@@ -4841,28 +5075,31 @@
         <v>45</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="6">
-        <v>44848.068055555559</v>
+      <c r="I69" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J69" s="6">
         <v>44848.068055555559</v>
       </c>
-      <c r="L69" s="2">
+      <c r="K69" s="6">
+        <v>44848.068055555559</v>
+      </c>
+      <c r="M69" s="2">
         <v>5</v>
       </c>
-      <c r="M69" s="1"/>
-      <c r="N69" s="11">
+      <c r="N69" s="1"/>
+      <c r="O69" s="11">
         <v>17.083333333333332</v>
       </c>
-      <c r="O69" s="1"/>
-      <c r="P69" s="11">
+      <c r="P69" s="1"/>
+      <c r="Q69" s="11">
         <v>51.25</v>
       </c>
-      <c r="Q69" s="13">
+      <c r="R69" s="13">
         <v>6.833333333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
         <v>77</v>
@@ -4883,28 +5120,31 @@
         <v>47</v>
       </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="6">
-        <v>44849.068055555559</v>
+      <c r="I70" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J70" s="6">
         <v>44849.068055555559</v>
       </c>
-      <c r="L70" s="2">
+      <c r="K70" s="6">
+        <v>44849.068055555559</v>
+      </c>
+      <c r="M70" s="2">
         <v>5</v>
       </c>
-      <c r="M70" s="1"/>
-      <c r="N70" s="11">
+      <c r="N70" s="1"/>
+      <c r="O70" s="11">
         <v>15.416666666666668</v>
       </c>
-      <c r="O70" s="1"/>
-      <c r="P70" s="11">
+      <c r="P70" s="1"/>
+      <c r="Q70" s="11">
         <v>46.25</v>
       </c>
-      <c r="Q70" s="13">
+      <c r="R70" s="13">
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
         <v>78</v>
@@ -4925,28 +5165,31 @@
         <v>45</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="6">
-        <v>44850.068055555559</v>
+      <c r="I71" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J71" s="6">
         <v>44850.068055555559</v>
       </c>
-      <c r="L71" s="2">
+      <c r="K71" s="6">
+        <v>44850.068055555559</v>
+      </c>
+      <c r="M71" s="2">
         <v>5</v>
       </c>
-      <c r="M71" s="1"/>
-      <c r="N71" s="11">
+      <c r="N71" s="1"/>
+      <c r="O71" s="11">
         <v>12.083333333333332</v>
       </c>
-      <c r="O71" s="1"/>
-      <c r="P71" s="11">
+      <c r="P71" s="1"/>
+      <c r="Q71" s="11">
         <v>36.25</v>
       </c>
-      <c r="Q71" s="13">
+      <c r="R71" s="13">
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
         <v>79</v>
@@ -4967,28 +5210,31 @@
         <v>66</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="6">
-        <v>44851.068055555559</v>
+      <c r="I72" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="J72" s="6">
         <v>44851.068055555559</v>
       </c>
-      <c r="L72" s="2">
+      <c r="K72" s="6">
+        <v>44851.068055555559</v>
+      </c>
+      <c r="M72" s="2">
         <v>5</v>
       </c>
-      <c r="M72" s="1"/>
-      <c r="N72" s="11">
+      <c r="N72" s="1"/>
+      <c r="O72" s="11">
         <v>21.666666666666664</v>
       </c>
-      <c r="O72" s="1"/>
-      <c r="P72" s="11">
+      <c r="P72" s="1"/>
+      <c r="Q72" s="11">
         <v>65</v>
       </c>
-      <c r="Q72" s="13">
+      <c r="R72" s="13">
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
         <v>80</v>
@@ -5009,28 +5255,31 @@
         <v>50</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="6">
-        <v>44852.068055555559</v>
+      <c r="I73" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J73" s="6">
         <v>44852.068055555559</v>
       </c>
-      <c r="L73" s="2">
-        <v>3</v>
-      </c>
-      <c r="M73" s="1"/>
-      <c r="N73" s="11">
+      <c r="K73" s="6">
+        <v>44852.068055555559</v>
+      </c>
+      <c r="M73" s="2">
+        <v>3</v>
+      </c>
+      <c r="N73" s="1"/>
+      <c r="O73" s="11">
         <v>8.125</v>
       </c>
-      <c r="O73" s="1"/>
-      <c r="P73" s="11">
+      <c r="P73" s="1"/>
+      <c r="Q73" s="11">
         <v>24.375</v>
       </c>
-      <c r="Q73" s="13">
+      <c r="R73" s="13">
         <v>5.416666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>81</v>
@@ -5051,28 +5300,31 @@
         <v>31</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="6">
-        <v>44853.068055555559</v>
+      <c r="I74" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J74" s="6">
         <v>44853.068055555559</v>
       </c>
-      <c r="L74" s="2">
-        <v>3</v>
-      </c>
-      <c r="M74" s="1"/>
-      <c r="N74" s="11">
+      <c r="K74" s="6">
+        <v>44853.068055555559</v>
+      </c>
+      <c r="M74" s="2">
+        <v>3</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="11">
         <v>14.375</v>
       </c>
-      <c r="O74" s="1"/>
-      <c r="P74" s="11">
+      <c r="P74" s="1"/>
+      <c r="Q74" s="11">
         <v>43.125</v>
       </c>
-      <c r="Q74" s="13">
+      <c r="R74" s="13">
         <v>9.5833333333333339</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
         <v>82</v>
@@ -5093,28 +5345,31 @@
         <v>15</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="6">
-        <v>44854.068055555559</v>
+      <c r="I75" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J75" s="6">
         <v>44854.068055555559</v>
       </c>
-      <c r="L75" s="2">
-        <v>3</v>
-      </c>
-      <c r="M75" s="1"/>
-      <c r="N75" s="11">
+      <c r="K75" s="6">
+        <v>44854.068055555559</v>
+      </c>
+      <c r="M75" s="2">
+        <v>3</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="11">
         <v>9.125</v>
       </c>
-      <c r="O75" s="1"/>
-      <c r="P75" s="11">
+      <c r="P75" s="1"/>
+      <c r="Q75" s="11">
         <v>27.375</v>
       </c>
-      <c r="Q75" s="13">
+      <c r="R75" s="13">
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
         <v>83</v>
@@ -5135,28 +5390,31 @@
         <v>26</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="6">
-        <v>44855.068055555559</v>
+      <c r="I76" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J76" s="6">
         <v>44855.068055555559</v>
       </c>
-      <c r="L76" s="2">
-        <v>3</v>
-      </c>
-      <c r="M76" s="1"/>
-      <c r="N76" s="11">
+      <c r="K76" s="6">
+        <v>44855.068055555559</v>
+      </c>
+      <c r="M76" s="2">
+        <v>3</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="11">
         <v>11.125</v>
       </c>
-      <c r="O76" s="1"/>
-      <c r="P76" s="11">
+      <c r="P76" s="1"/>
+      <c r="Q76" s="11">
         <v>33.375</v>
       </c>
-      <c r="Q76" s="13">
+      <c r="R76" s="13">
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
         <v>84</v>
@@ -5177,28 +5435,31 @@
         <v>53</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="6">
-        <v>44856.068055555559</v>
+      <c r="I77" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J77" s="6">
         <v>44856.068055555559</v>
       </c>
-      <c r="L77" s="2">
-        <v>3</v>
-      </c>
-      <c r="M77" s="1"/>
-      <c r="N77" s="11">
+      <c r="K77" s="6">
+        <v>44856.068055555559</v>
+      </c>
+      <c r="M77" s="2">
+        <v>3</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="11">
         <v>14.5</v>
       </c>
-      <c r="O77" s="1"/>
-      <c r="P77" s="11">
+      <c r="P77" s="1"/>
+      <c r="Q77" s="11">
         <v>43.5</v>
       </c>
-      <c r="Q77" s="13">
+      <c r="R77" s="13">
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
         <v>85</v>
@@ -5219,28 +5480,31 @@
         <v>63</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="6">
-        <v>44857.068055555559</v>
+      <c r="I78" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J78" s="6">
         <v>44857.068055555559</v>
       </c>
-      <c r="L78" s="2">
-        <v>3</v>
-      </c>
-      <c r="M78" s="1"/>
-      <c r="N78" s="11">
+      <c r="K78" s="6">
+        <v>44857.068055555559</v>
+      </c>
+      <c r="M78" s="2">
+        <v>3</v>
+      </c>
+      <c r="N78" s="1"/>
+      <c r="O78" s="11">
         <v>8.5</v>
       </c>
-      <c r="O78" s="1"/>
-      <c r="P78" s="11">
+      <c r="P78" s="1"/>
+      <c r="Q78" s="11">
         <v>25.5</v>
       </c>
-      <c r="Q78" s="13">
+      <c r="R78" s="13">
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
         <v>86</v>
@@ -5261,28 +5525,31 @@
         <v>34</v>
       </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="6">
-        <v>44858.068055555559</v>
+      <c r="I79" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J79" s="6">
         <v>44858.068055555559</v>
       </c>
-      <c r="L79" s="2">
-        <v>3</v>
-      </c>
-      <c r="M79" s="1"/>
-      <c r="N79" s="11">
+      <c r="K79" s="6">
+        <v>44858.068055555559</v>
+      </c>
+      <c r="M79" s="2">
+        <v>3</v>
+      </c>
+      <c r="N79" s="1"/>
+      <c r="O79" s="11">
         <v>6.75</v>
       </c>
-      <c r="O79" s="1"/>
-      <c r="P79" s="11">
+      <c r="P79" s="1"/>
+      <c r="Q79" s="11">
         <v>20.25</v>
       </c>
-      <c r="Q79" s="13">
+      <c r="R79" s="13">
         <v>4.5</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>87</v>
@@ -5303,28 +5570,31 @@
         <v>27</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="6">
-        <v>44859.068055555559</v>
+      <c r="I80" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J80" s="6">
         <v>44859.068055555559</v>
       </c>
-      <c r="L80" s="2">
-        <v>3</v>
-      </c>
-      <c r="M80" s="1"/>
-      <c r="N80" s="11">
+      <c r="K80" s="6">
+        <v>44859.068055555559</v>
+      </c>
+      <c r="M80" s="2">
+        <v>3</v>
+      </c>
+      <c r="N80" s="1"/>
+      <c r="O80" s="11">
         <v>11.375</v>
       </c>
-      <c r="O80" s="1"/>
-      <c r="P80" s="11">
+      <c r="P80" s="1"/>
+      <c r="Q80" s="11">
         <v>34.125</v>
       </c>
-      <c r="Q80" s="13">
+      <c r="R80" s="13">
         <v>7.583333333333333</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
         <v>88</v>
@@ -5345,28 +5615,31 @@
         <v>36</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="6">
-        <v>44860.068055555559</v>
+      <c r="I81" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J81" s="6">
         <v>44860.068055555559</v>
       </c>
-      <c r="L81" s="2">
-        <v>3</v>
-      </c>
-      <c r="M81" s="1"/>
-      <c r="N81" s="11">
+      <c r="K81" s="6">
+        <v>44860.068055555559</v>
+      </c>
+      <c r="M81" s="2">
+        <v>3</v>
+      </c>
+      <c r="N81" s="1"/>
+      <c r="O81" s="11">
         <v>7.625</v>
       </c>
-      <c r="O81" s="1"/>
-      <c r="P81" s="11">
+      <c r="P81" s="1"/>
+      <c r="Q81" s="11">
         <v>22.875</v>
       </c>
-      <c r="Q81" s="13">
+      <c r="R81" s="13">
         <v>5.083333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
         <v>89</v>
@@ -5387,28 +5660,31 @@
         <v>9</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="6">
-        <v>44861.068055555559</v>
+      <c r="I82" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J82" s="6">
         <v>44861.068055555559</v>
       </c>
-      <c r="L82" s="2">
-        <v>3</v>
-      </c>
-      <c r="M82" s="1"/>
-      <c r="N82" s="11">
+      <c r="K82" s="6">
+        <v>44861.068055555559</v>
+      </c>
+      <c r="M82" s="2">
+        <v>3</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="O82" s="11">
         <v>14</v>
       </c>
-      <c r="O82" s="1"/>
-      <c r="P82" s="11">
+      <c r="P82" s="1"/>
+      <c r="Q82" s="11">
         <v>42</v>
       </c>
-      <c r="Q82" s="13">
+      <c r="R82" s="13">
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>90</v>
@@ -5429,28 +5705,31 @@
         <v>43</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="6">
-        <v>44862.068055555559</v>
+      <c r="I83" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J83" s="6">
         <v>44862.068055555559</v>
       </c>
-      <c r="L83" s="2">
-        <v>3</v>
-      </c>
-      <c r="M83" s="1"/>
-      <c r="N83" s="11">
+      <c r="K83" s="6">
+        <v>44862.068055555559</v>
+      </c>
+      <c r="M83" s="2">
+        <v>3</v>
+      </c>
+      <c r="N83" s="1"/>
+      <c r="O83" s="11">
         <v>11.875</v>
       </c>
-      <c r="O83" s="1"/>
-      <c r="P83" s="11">
+      <c r="P83" s="1"/>
+      <c r="Q83" s="11">
         <v>35.625</v>
       </c>
-      <c r="Q83" s="13">
+      <c r="R83" s="13">
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
         <v>91</v>
@@ -5471,28 +5750,31 @@
         <v>59</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="6">
-        <v>44863.068055555559</v>
+      <c r="I84" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J84" s="6">
         <v>44863.068055555559</v>
       </c>
-      <c r="L84" s="2">
-        <v>3</v>
-      </c>
-      <c r="M84" s="1"/>
-      <c r="N84" s="11">
+      <c r="K84" s="6">
+        <v>44863.068055555559</v>
+      </c>
+      <c r="M84" s="2">
+        <v>3</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="11">
         <v>15.5</v>
       </c>
-      <c r="O84" s="1"/>
-      <c r="P84" s="11">
+      <c r="P84" s="1"/>
+      <c r="Q84" s="11">
         <v>46.5</v>
       </c>
-      <c r="Q84" s="13">
+      <c r="R84" s="13">
         <v>10.333333333333334</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="2" t="s">
         <v>92</v>
@@ -5513,28 +5795,31 @@
         <v>55</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="6">
-        <v>44864.068055555559</v>
+      <c r="I85" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J85" s="6">
         <v>44864.068055555559</v>
       </c>
-      <c r="L85" s="2">
-        <v>3</v>
-      </c>
-      <c r="M85" s="1"/>
-      <c r="N85" s="11">
+      <c r="K85" s="6">
+        <v>44864.068055555559</v>
+      </c>
+      <c r="M85" s="2">
+        <v>3</v>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="11">
         <v>8.125</v>
       </c>
-      <c r="O85" s="1"/>
-      <c r="P85" s="11">
+      <c r="P85" s="1"/>
+      <c r="Q85" s="11">
         <v>24.375</v>
       </c>
-      <c r="Q85" s="13">
+      <c r="R85" s="13">
         <v>5.416666666666667</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="2" t="s">
         <v>93</v>
@@ -5555,28 +5840,31 @@
         <v>26</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="6">
-        <v>44865.068055555559</v>
+      <c r="I86" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J86" s="6">
         <v>44865.068055555559</v>
       </c>
-      <c r="L86" s="2">
-        <v>3</v>
-      </c>
-      <c r="M86" s="1"/>
-      <c r="N86" s="11">
+      <c r="K86" s="6">
+        <v>44865.068055555559</v>
+      </c>
+      <c r="M86" s="2">
+        <v>3</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="O86" s="11">
         <v>15.25</v>
       </c>
-      <c r="O86" s="1"/>
-      <c r="P86" s="11">
+      <c r="P86" s="1"/>
+      <c r="Q86" s="11">
         <v>45.75</v>
       </c>
-      <c r="Q86" s="13">
+      <c r="R86" s="13">
         <v>10.166666666666666</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="2" t="s">
         <v>94</v>
@@ -5597,28 +5885,31 @@
         <v>71</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="6">
-        <v>44866.068055555559</v>
+      <c r="I87" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J87" s="6">
         <v>44866.068055555559</v>
       </c>
-      <c r="L87" s="2">
-        <v>3</v>
-      </c>
-      <c r="M87" s="1"/>
-      <c r="N87" s="11">
+      <c r="K87" s="6">
+        <v>44866.068055555559</v>
+      </c>
+      <c r="M87" s="2">
+        <v>3</v>
+      </c>
+      <c r="N87" s="1"/>
+      <c r="O87" s="11">
         <v>11.875</v>
       </c>
-      <c r="O87" s="1"/>
-      <c r="P87" s="11">
+      <c r="P87" s="1"/>
+      <c r="Q87" s="11">
         <v>35.625</v>
       </c>
-      <c r="Q87" s="13">
+      <c r="R87" s="13">
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="2" t="s">
         <v>95</v>
@@ -5639,28 +5930,31 @@
         <v>46</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="6">
-        <v>44867.068055555559</v>
+      <c r="I88" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J88" s="6">
         <v>44867.068055555559</v>
       </c>
-      <c r="L88" s="2">
-        <v>3</v>
-      </c>
-      <c r="M88" s="1"/>
-      <c r="N88" s="11">
+      <c r="K88" s="6">
+        <v>44867.068055555559</v>
+      </c>
+      <c r="M88" s="2">
+        <v>3</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88" s="11">
         <v>9</v>
       </c>
-      <c r="O88" s="1"/>
-      <c r="P88" s="11">
+      <c r="P88" s="1"/>
+      <c r="Q88" s="11">
         <v>27</v>
       </c>
-      <c r="Q88" s="13">
+      <c r="R88" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="2" t="s">
         <v>96</v>
@@ -5681,28 +5975,31 @@
         <v>18</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="6">
-        <v>44868.068055555559</v>
+      <c r="I89" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J89" s="6">
         <v>44868.068055555559</v>
       </c>
-      <c r="L89" s="2">
-        <v>3</v>
-      </c>
-      <c r="M89" s="1"/>
-      <c r="N89" s="11">
+      <c r="K89" s="6">
+        <v>44868.068055555559</v>
+      </c>
+      <c r="M89" s="2">
+        <v>3</v>
+      </c>
+      <c r="N89" s="1"/>
+      <c r="O89" s="11">
         <v>10.875</v>
       </c>
-      <c r="O89" s="1"/>
-      <c r="P89" s="11">
+      <c r="P89" s="1"/>
+      <c r="Q89" s="11">
         <v>32.625</v>
       </c>
-      <c r="Q89" s="13">
+      <c r="R89" s="13">
         <v>7.25</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="2" t="s">
         <v>97</v>
@@ -5723,28 +6020,31 @@
         <v>77</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="6">
-        <v>44869.068055555559</v>
+      <c r="I90" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J90" s="6">
         <v>44869.068055555559</v>
       </c>
-      <c r="L90" s="2">
-        <v>3</v>
-      </c>
-      <c r="M90" s="1"/>
-      <c r="N90" s="11">
+      <c r="K90" s="6">
+        <v>44869.068055555559</v>
+      </c>
+      <c r="M90" s="2">
+        <v>3</v>
+      </c>
+      <c r="N90" s="1"/>
+      <c r="O90" s="11">
         <v>10.375</v>
       </c>
-      <c r="O90" s="1"/>
-      <c r="P90" s="11">
+      <c r="P90" s="1"/>
+      <c r="Q90" s="11">
         <v>31.125</v>
       </c>
-      <c r="Q90" s="13">
+      <c r="R90" s="13">
         <v>6.916666666666667</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="2" t="s">
         <v>98</v>
@@ -5765,28 +6065,31 @@
         <v>47</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="6">
-        <v>44870.068055555559</v>
+      <c r="I91" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J91" s="6">
         <v>44870.068055555559</v>
       </c>
-      <c r="L91" s="2">
-        <v>3</v>
-      </c>
-      <c r="M91" s="1"/>
-      <c r="N91" s="11">
+      <c r="K91" s="6">
+        <v>44870.068055555559</v>
+      </c>
+      <c r="M91" s="2">
+        <v>3</v>
+      </c>
+      <c r="N91" s="1"/>
+      <c r="O91" s="11">
         <v>11.75</v>
       </c>
-      <c r="O91" s="1"/>
-      <c r="P91" s="11">
+      <c r="P91" s="1"/>
+      <c r="Q91" s="11">
         <v>35.25</v>
       </c>
-      <c r="Q91" s="13">
+      <c r="R91" s="13">
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="2" t="s">
         <v>99</v>
@@ -5807,28 +6110,31 @@
         <v>13</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="6">
-        <v>44871.068055555559</v>
+      <c r="I92" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J92" s="6">
         <v>44871.068055555559</v>
       </c>
-      <c r="L92" s="2">
-        <v>3</v>
-      </c>
-      <c r="M92" s="1"/>
-      <c r="N92" s="11">
+      <c r="K92" s="6">
+        <v>44871.068055555559</v>
+      </c>
+      <c r="M92" s="2">
+        <v>3</v>
+      </c>
+      <c r="N92" s="1"/>
+      <c r="O92" s="11">
         <v>12.125</v>
       </c>
-      <c r="O92" s="1"/>
-      <c r="P92" s="11">
+      <c r="P92" s="1"/>
+      <c r="Q92" s="11">
         <v>36.375</v>
       </c>
-      <c r="Q92" s="13">
+      <c r="R92" s="13">
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="2" t="s">
         <v>100</v>
@@ -5849,28 +6155,31 @@
         <v>8</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="I93" s="6">
-        <v>44872.068055555559</v>
+      <c r="I93" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J93" s="6">
         <v>44872.068055555559</v>
       </c>
-      <c r="L93" s="2">
-        <v>3</v>
-      </c>
-      <c r="M93" s="1"/>
-      <c r="N93" s="11">
+      <c r="K93" s="6">
+        <v>44872.068055555559</v>
+      </c>
+      <c r="M93" s="2">
+        <v>3</v>
+      </c>
+      <c r="N93" s="1"/>
+      <c r="O93" s="11">
         <v>9.625</v>
       </c>
-      <c r="O93" s="1"/>
-      <c r="P93" s="11">
+      <c r="P93" s="1"/>
+      <c r="Q93" s="11">
         <v>28.875</v>
       </c>
-      <c r="Q93" s="13">
+      <c r="R93" s="13">
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="2" t="s">
         <v>101</v>
@@ -5891,28 +6200,31 @@
         <v>29</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="6">
-        <v>44873.068055555559</v>
+      <c r="I94" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J94" s="6">
         <v>44873.068055555559</v>
       </c>
-      <c r="L94" s="2">
-        <v>3</v>
-      </c>
-      <c r="M94" s="1"/>
-      <c r="N94" s="11">
+      <c r="K94" s="6">
+        <v>44873.068055555559</v>
+      </c>
+      <c r="M94" s="2">
+        <v>3</v>
+      </c>
+      <c r="N94" s="1"/>
+      <c r="O94" s="11">
         <v>11.125</v>
       </c>
-      <c r="O94" s="1"/>
-      <c r="P94" s="11">
+      <c r="P94" s="1"/>
+      <c r="Q94" s="11">
         <v>33.375</v>
       </c>
-      <c r="Q94" s="13">
+      <c r="R94" s="13">
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="2" t="s">
         <v>102</v>
@@ -5933,28 +6245,31 @@
         <v>68</v>
       </c>
       <c r="H95" s="1"/>
-      <c r="I95" s="6">
-        <v>44874.068055555559</v>
+      <c r="I95" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J95" s="6">
         <v>44874.068055555559</v>
       </c>
-      <c r="L95" s="2">
-        <v>3</v>
-      </c>
-      <c r="M95" s="1"/>
-      <c r="N95" s="11">
+      <c r="K95" s="6">
+        <v>44874.068055555559</v>
+      </c>
+      <c r="M95" s="2">
+        <v>3</v>
+      </c>
+      <c r="N95" s="1"/>
+      <c r="O95" s="11">
         <v>10.75</v>
       </c>
-      <c r="O95" s="1"/>
-      <c r="P95" s="11">
+      <c r="P95" s="1"/>
+      <c r="Q95" s="11">
         <v>32.25</v>
       </c>
-      <c r="Q95" s="13">
+      <c r="R95" s="13">
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="2" t="s">
         <v>103</v>
@@ -5975,28 +6290,31 @@
         <v>27</v>
       </c>
       <c r="H96" s="1"/>
-      <c r="I96" s="6">
-        <v>44875.068055555559</v>
+      <c r="I96" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J96" s="6">
         <v>44875.068055555559</v>
       </c>
-      <c r="L96" s="2">
-        <v>3</v>
-      </c>
-      <c r="M96" s="1"/>
-      <c r="N96" s="11">
+      <c r="K96" s="6">
+        <v>44875.068055555559</v>
+      </c>
+      <c r="M96" s="2">
+        <v>3</v>
+      </c>
+      <c r="N96" s="1"/>
+      <c r="O96" s="11">
         <v>15.25</v>
       </c>
-      <c r="O96" s="1"/>
-      <c r="P96" s="11">
+      <c r="P96" s="1"/>
+      <c r="Q96" s="11">
         <v>45.75</v>
       </c>
-      <c r="Q96" s="13">
+      <c r="R96" s="13">
         <v>10.166666666666666</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="2" t="s">
         <v>104</v>
@@ -6017,28 +6335,31 @@
         <v>68</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="I97" s="6">
-        <v>44876.068055555559</v>
+      <c r="I97" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J97" s="6">
         <v>44876.068055555559</v>
       </c>
-      <c r="L97" s="2">
-        <v>3</v>
-      </c>
-      <c r="M97" s="1"/>
-      <c r="N97" s="11">
+      <c r="K97" s="6">
+        <v>44876.068055555559</v>
+      </c>
+      <c r="M97" s="2">
+        <v>3</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="11">
         <v>15.25</v>
       </c>
-      <c r="O97" s="1"/>
-      <c r="P97" s="11">
+      <c r="P97" s="1"/>
+      <c r="Q97" s="11">
         <v>45.75</v>
       </c>
-      <c r="Q97" s="13">
+      <c r="R97" s="13">
         <v>10.166666666666666</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="2" t="s">
         <v>105</v>
@@ -6059,28 +6380,31 @@
         <v>38</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="6">
-        <v>44877.068055555559</v>
+      <c r="I98" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J98" s="6">
         <v>44877.068055555559</v>
       </c>
-      <c r="L98" s="2">
-        <v>3</v>
-      </c>
-      <c r="M98" s="1"/>
-      <c r="N98" s="11">
+      <c r="K98" s="6">
+        <v>44877.068055555559</v>
+      </c>
+      <c r="M98" s="2">
+        <v>3</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="11">
         <v>9.125</v>
       </c>
-      <c r="O98" s="1"/>
-      <c r="P98" s="11">
+      <c r="P98" s="1"/>
+      <c r="Q98" s="11">
         <v>27.375</v>
       </c>
-      <c r="Q98" s="13">
+      <c r="R98" s="13">
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="2" t="s">
         <v>106</v>
@@ -6101,28 +6425,31 @@
         <v>71</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="6">
-        <v>44878.068055555559</v>
+      <c r="I99" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J99" s="6">
         <v>44878.068055555559</v>
       </c>
-      <c r="L99" s="2">
-        <v>3</v>
-      </c>
-      <c r="M99" s="1"/>
-      <c r="N99" s="11">
+      <c r="K99" s="6">
+        <v>44878.068055555559</v>
+      </c>
+      <c r="M99" s="2">
+        <v>3</v>
+      </c>
+      <c r="N99" s="1"/>
+      <c r="O99" s="11">
         <v>11.5</v>
       </c>
-      <c r="O99" s="1"/>
-      <c r="P99" s="11">
+      <c r="P99" s="1"/>
+      <c r="Q99" s="11">
         <v>34.5</v>
       </c>
-      <c r="Q99" s="13">
+      <c r="R99" s="13">
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="2" t="s">
         <v>107</v>
@@ -6143,28 +6470,31 @@
         <v>14</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="6">
-        <v>44879.068055555559</v>
+      <c r="I100" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J100" s="6">
         <v>44879.068055555559</v>
       </c>
-      <c r="L100" s="2">
-        <v>3</v>
-      </c>
-      <c r="M100" s="1"/>
-      <c r="N100" s="11">
+      <c r="K100" s="6">
+        <v>44879.068055555559</v>
+      </c>
+      <c r="M100" s="2">
+        <v>3</v>
+      </c>
+      <c r="N100" s="1"/>
+      <c r="O100" s="11">
         <v>6.875</v>
       </c>
-      <c r="O100" s="1"/>
-      <c r="P100" s="11">
+      <c r="P100" s="1"/>
+      <c r="Q100" s="11">
         <v>20.625</v>
       </c>
-      <c r="Q100" s="13">
+      <c r="R100" s="13">
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="2" t="s">
         <v>108</v>
@@ -6185,28 +6515,31 @@
         <v>33</v>
       </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="6">
-        <v>44880.068055555559</v>
+      <c r="I101" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J101" s="6">
         <v>44880.068055555559</v>
       </c>
-      <c r="L101" s="2">
-        <v>3</v>
-      </c>
-      <c r="M101" s="1"/>
-      <c r="N101" s="11">
+      <c r="K101" s="6">
+        <v>44880.068055555559</v>
+      </c>
+      <c r="M101" s="2">
+        <v>3</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="O101" s="11">
         <v>9.75</v>
       </c>
-      <c r="O101" s="1"/>
-      <c r="P101" s="11">
+      <c r="P101" s="1"/>
+      <c r="Q101" s="11">
         <v>29.25</v>
       </c>
-      <c r="Q101" s="13">
+      <c r="R101" s="13">
         <v>6.5</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="2" t="s">
         <v>109</v>
@@ -6227,28 +6560,31 @@
         <v>16</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="6">
-        <v>44881.068055555559</v>
+      <c r="I102" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J102" s="6">
         <v>44881.068055555559</v>
       </c>
-      <c r="L102" s="2">
-        <v>3</v>
-      </c>
-      <c r="M102" s="1"/>
-      <c r="N102" s="11">
+      <c r="K102" s="6">
+        <v>44881.068055555559</v>
+      </c>
+      <c r="M102" s="2">
+        <v>3</v>
+      </c>
+      <c r="N102" s="1"/>
+      <c r="O102" s="11">
         <v>15.375</v>
       </c>
-      <c r="O102" s="1"/>
-      <c r="P102" s="11">
+      <c r="P102" s="1"/>
+      <c r="Q102" s="11">
         <v>46.125</v>
       </c>
-      <c r="Q102" s="13">
+      <c r="R102" s="13">
         <v>10.25</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="2" t="s">
         <v>110</v>
@@ -6269,28 +6605,31 @@
         <v>61</v>
       </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="6">
-        <v>44882.068055555559</v>
+      <c r="I103" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J103" s="6">
         <v>44882.068055555559</v>
       </c>
-      <c r="L103" s="2">
-        <v>3</v>
-      </c>
-      <c r="M103" s="1"/>
-      <c r="N103" s="11">
+      <c r="K103" s="6">
+        <v>44882.068055555559</v>
+      </c>
+      <c r="M103" s="2">
+        <v>3</v>
+      </c>
+      <c r="N103" s="1"/>
+      <c r="O103" s="11">
         <v>15</v>
       </c>
-      <c r="O103" s="1"/>
-      <c r="P103" s="11">
+      <c r="P103" s="1"/>
+      <c r="Q103" s="11">
         <v>45</v>
       </c>
-      <c r="Q103" s="13">
+      <c r="R103" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="2" t="s">
         <v>111</v>
@@ -6311,28 +6650,31 @@
         <v>51</v>
       </c>
       <c r="H104" s="1"/>
-      <c r="I104" s="6">
-        <v>44883.068055555559</v>
+      <c r="I104" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J104" s="6">
         <v>44883.068055555559</v>
       </c>
-      <c r="L104" s="2">
-        <v>3</v>
-      </c>
-      <c r="M104" s="1"/>
-      <c r="N104" s="11">
+      <c r="K104" s="6">
+        <v>44883.068055555559</v>
+      </c>
+      <c r="M104" s="2">
+        <v>3</v>
+      </c>
+      <c r="N104" s="1"/>
+      <c r="O104" s="11">
         <v>9.875</v>
       </c>
-      <c r="O104" s="1"/>
-      <c r="P104" s="11">
+      <c r="P104" s="1"/>
+      <c r="Q104" s="11">
         <v>29.625</v>
       </c>
-      <c r="Q104" s="13">
+      <c r="R104" s="13">
         <v>6.583333333333333</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="2" t="s">
         <v>112</v>
@@ -6353,28 +6695,31 @@
         <v>6</v>
       </c>
       <c r="H105" s="1"/>
-      <c r="I105" s="6">
-        <v>44884.068055555559</v>
+      <c r="I105" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J105" s="6">
         <v>44884.068055555559</v>
       </c>
-      <c r="L105" s="2">
-        <v>3</v>
-      </c>
-      <c r="M105" s="1"/>
-      <c r="N105" s="11">
+      <c r="K105" s="6">
+        <v>44884.068055555559</v>
+      </c>
+      <c r="M105" s="2">
+        <v>3</v>
+      </c>
+      <c r="N105" s="1"/>
+      <c r="O105" s="11">
         <v>8</v>
       </c>
-      <c r="O105" s="1"/>
-      <c r="P105" s="11">
+      <c r="P105" s="1"/>
+      <c r="Q105" s="11">
         <v>24</v>
       </c>
-      <c r="Q105" s="13">
+      <c r="R105" s="13">
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="2" t="s">
         <v>113</v>
@@ -6395,28 +6740,31 @@
         <v>54</v>
       </c>
       <c r="H106" s="1"/>
-      <c r="I106" s="6">
-        <v>44885.068055555559</v>
+      <c r="I106" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J106" s="6">
         <v>44885.068055555559</v>
       </c>
-      <c r="L106" s="2">
-        <v>3</v>
-      </c>
-      <c r="M106" s="1"/>
-      <c r="N106" s="11">
+      <c r="K106" s="6">
+        <v>44885.068055555559</v>
+      </c>
+      <c r="M106" s="2">
+        <v>3</v>
+      </c>
+      <c r="N106" s="1"/>
+      <c r="O106" s="11">
         <v>7.125</v>
       </c>
-      <c r="O106" s="1"/>
-      <c r="P106" s="11">
+      <c r="P106" s="1"/>
+      <c r="Q106" s="11">
         <v>21.375</v>
       </c>
-      <c r="Q106" s="13">
+      <c r="R106" s="13">
         <v>4.75</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>114</v>
@@ -6437,28 +6785,31 @@
         <v>59</v>
       </c>
       <c r="H107" s="1"/>
-      <c r="I107" s="6">
-        <v>44886.068055555559</v>
+      <c r="I107" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J107" s="6">
         <v>44886.068055555559</v>
       </c>
-      <c r="L107" s="2">
-        <v>3</v>
-      </c>
-      <c r="M107" s="1"/>
-      <c r="N107" s="11">
+      <c r="K107" s="6">
+        <v>44886.068055555559</v>
+      </c>
+      <c r="M107" s="2">
+        <v>3</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="O107" s="11">
         <v>12.125</v>
       </c>
-      <c r="O107" s="1"/>
-      <c r="P107" s="11">
+      <c r="P107" s="1"/>
+      <c r="Q107" s="11">
         <v>36.375</v>
       </c>
-      <c r="Q107" s="13">
+      <c r="R107" s="13">
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="2" t="s">
         <v>115</v>
@@ -6479,28 +6830,31 @@
         <v>10</v>
       </c>
       <c r="H108" s="1"/>
-      <c r="I108" s="6">
-        <v>44887.068055555559</v>
+      <c r="I108" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J108" s="6">
         <v>44887.068055555559</v>
       </c>
-      <c r="L108" s="2">
-        <v>3</v>
-      </c>
-      <c r="M108" s="1"/>
-      <c r="N108" s="11">
+      <c r="K108" s="6">
+        <v>44887.068055555559</v>
+      </c>
+      <c r="M108" s="2">
+        <v>3</v>
+      </c>
+      <c r="N108" s="1"/>
+      <c r="O108" s="11">
         <v>13.125</v>
       </c>
-      <c r="O108" s="1"/>
-      <c r="P108" s="11">
+      <c r="P108" s="1"/>
+      <c r="Q108" s="11">
         <v>39.375</v>
       </c>
-      <c r="Q108" s="13">
+      <c r="R108" s="13">
         <v>8.75</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="2" t="s">
         <v>116</v>
@@ -6521,28 +6875,31 @@
         <v>73</v>
       </c>
       <c r="H109" s="1"/>
-      <c r="I109" s="6">
-        <v>44888.068055555559</v>
+      <c r="I109" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J109" s="6">
         <v>44888.068055555559</v>
       </c>
-      <c r="L109" s="2">
-        <v>3</v>
-      </c>
-      <c r="M109" s="1"/>
-      <c r="N109" s="11">
+      <c r="K109" s="6">
+        <v>44888.068055555559</v>
+      </c>
+      <c r="M109" s="2">
+        <v>3</v>
+      </c>
+      <c r="N109" s="1"/>
+      <c r="O109" s="11">
         <v>7</v>
       </c>
-      <c r="O109" s="1"/>
-      <c r="P109" s="11">
+      <c r="P109" s="1"/>
+      <c r="Q109" s="11">
         <v>21</v>
       </c>
-      <c r="Q109" s="13">
+      <c r="R109" s="13">
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="2" t="s">
         <v>117</v>
@@ -6563,28 +6920,31 @@
         <v>64</v>
       </c>
       <c r="H110" s="1"/>
-      <c r="I110" s="6">
-        <v>44889.068055555559</v>
+      <c r="I110" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J110" s="6">
         <v>44889.068055555559</v>
       </c>
-      <c r="L110" s="2">
-        <v>3</v>
-      </c>
-      <c r="M110" s="1"/>
-      <c r="N110" s="11">
+      <c r="K110" s="6">
+        <v>44889.068055555559</v>
+      </c>
+      <c r="M110" s="2">
+        <v>3</v>
+      </c>
+      <c r="N110" s="1"/>
+      <c r="O110" s="11">
         <v>12.75</v>
       </c>
-      <c r="O110" s="1"/>
-      <c r="P110" s="11">
+      <c r="P110" s="1"/>
+      <c r="Q110" s="11">
         <v>38.25</v>
       </c>
-      <c r="Q110" s="13">
+      <c r="R110" s="13">
         <v>8.5</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="2" t="s">
         <v>118</v>
@@ -6605,28 +6965,31 @@
         <v>25</v>
       </c>
       <c r="H111" s="1"/>
-      <c r="I111" s="6">
-        <v>44890.068055555559</v>
+      <c r="I111" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J111" s="6">
         <v>44890.068055555559</v>
       </c>
-      <c r="L111" s="2">
-        <v>3</v>
-      </c>
-      <c r="M111" s="1"/>
-      <c r="N111" s="11">
+      <c r="K111" s="6">
+        <v>44890.068055555559</v>
+      </c>
+      <c r="M111" s="2">
+        <v>3</v>
+      </c>
+      <c r="N111" s="1"/>
+      <c r="O111" s="11">
         <v>13.625</v>
       </c>
-      <c r="O111" s="1"/>
-      <c r="P111" s="11">
+      <c r="P111" s="1"/>
+      <c r="Q111" s="11">
         <v>40.875</v>
       </c>
-      <c r="Q111" s="13">
+      <c r="R111" s="13">
         <v>9.0833333333333339</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="2" t="s">
         <v>119</v>
@@ -6647,28 +7010,31 @@
         <v>20</v>
       </c>
       <c r="H112" s="1"/>
-      <c r="I112" s="6">
-        <v>44891.068055555559</v>
+      <c r="I112" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J112" s="6">
         <v>44891.068055555559</v>
       </c>
-      <c r="L112" s="2">
-        <v>3</v>
-      </c>
-      <c r="M112" s="1"/>
-      <c r="N112" s="11">
+      <c r="K112" s="6">
+        <v>44891.068055555559</v>
+      </c>
+      <c r="M112" s="2">
+        <v>3</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="11">
         <v>11.25</v>
       </c>
-      <c r="O112" s="1"/>
-      <c r="P112" s="11">
+      <c r="P112" s="1"/>
+      <c r="Q112" s="11">
         <v>33.75</v>
       </c>
-      <c r="Q112" s="13">
+      <c r="R112" s="13">
         <v>7.5</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="2" t="s">
         <v>120</v>
@@ -6689,28 +7055,31 @@
         <v>59</v>
       </c>
       <c r="H113" s="1"/>
-      <c r="I113" s="6">
-        <v>44892.068055555559</v>
+      <c r="I113" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J113" s="6">
         <v>44892.068055555559</v>
       </c>
-      <c r="L113" s="2">
-        <v>3</v>
-      </c>
-      <c r="M113" s="1"/>
-      <c r="N113" s="11">
+      <c r="K113" s="6">
+        <v>44892.068055555559</v>
+      </c>
+      <c r="M113" s="2">
+        <v>3</v>
+      </c>
+      <c r="N113" s="1"/>
+      <c r="O113" s="11">
         <v>11.125</v>
       </c>
-      <c r="O113" s="1"/>
-      <c r="P113" s="11">
+      <c r="P113" s="1"/>
+      <c r="Q113" s="11">
         <v>33.375</v>
       </c>
-      <c r="Q113" s="13">
+      <c r="R113" s="13">
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="2" t="s">
         <v>121</v>
@@ -6731,28 +7100,31 @@
         <v>30</v>
       </c>
       <c r="H114" s="1"/>
-      <c r="I114" s="6">
-        <v>44893.068055555559</v>
+      <c r="I114" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J114" s="6">
         <v>44893.068055555559</v>
       </c>
-      <c r="L114" s="2">
-        <v>3</v>
-      </c>
-      <c r="M114" s="1"/>
-      <c r="N114" s="11">
+      <c r="K114" s="6">
+        <v>44893.068055555559</v>
+      </c>
+      <c r="M114" s="2">
+        <v>3</v>
+      </c>
+      <c r="N114" s="1"/>
+      <c r="O114" s="11">
         <v>14.25</v>
       </c>
-      <c r="O114" s="1"/>
-      <c r="P114" s="11">
+      <c r="P114" s="1"/>
+      <c r="Q114" s="11">
         <v>42.75</v>
       </c>
-      <c r="Q114" s="13">
+      <c r="R114" s="13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="2" t="s">
         <v>122</v>
@@ -6773,28 +7145,31 @@
         <v>60</v>
       </c>
       <c r="H115" s="1"/>
-      <c r="I115" s="6">
-        <v>44894.068055555559</v>
+      <c r="I115" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J115" s="6">
         <v>44894.068055555559</v>
       </c>
-      <c r="L115" s="2">
-        <v>3</v>
-      </c>
-      <c r="M115" s="1"/>
-      <c r="N115" s="11">
+      <c r="K115" s="6">
+        <v>44894.068055555559</v>
+      </c>
+      <c r="M115" s="2">
+        <v>3</v>
+      </c>
+      <c r="N115" s="1"/>
+      <c r="O115" s="11">
         <v>13</v>
       </c>
-      <c r="O115" s="1"/>
-      <c r="P115" s="11">
+      <c r="P115" s="1"/>
+      <c r="Q115" s="11">
         <v>39</v>
       </c>
-      <c r="Q115" s="13">
+      <c r="R115" s="13">
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="2" t="s">
         <v>123</v>
@@ -6815,28 +7190,31 @@
         <v>39</v>
       </c>
       <c r="H116" s="1"/>
-      <c r="I116" s="6">
-        <v>44895.068055555559</v>
+      <c r="I116" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J116" s="6">
         <v>44895.068055555559</v>
       </c>
-      <c r="L116" s="2">
-        <v>3</v>
-      </c>
-      <c r="M116" s="1"/>
-      <c r="N116" s="11">
+      <c r="K116" s="6">
+        <v>44895.068055555559</v>
+      </c>
+      <c r="M116" s="2">
+        <v>3</v>
+      </c>
+      <c r="N116" s="1"/>
+      <c r="O116" s="11">
         <v>6.875</v>
       </c>
-      <c r="O116" s="1"/>
-      <c r="P116" s="11">
+      <c r="P116" s="1"/>
+      <c r="Q116" s="11">
         <v>20.625</v>
       </c>
-      <c r="Q116" s="13">
+      <c r="R116" s="13">
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="2" t="s">
         <v>124</v>
@@ -6857,28 +7235,31 @@
         <v>23</v>
       </c>
       <c r="H117" s="1"/>
-      <c r="I117" s="6">
-        <v>44896.068055555559</v>
+      <c r="I117" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J117" s="6">
         <v>44896.068055555559</v>
       </c>
-      <c r="L117" s="2">
-        <v>3</v>
-      </c>
-      <c r="M117" s="1"/>
-      <c r="N117" s="11">
+      <c r="K117" s="6">
+        <v>44896.068055555559</v>
+      </c>
+      <c r="M117" s="2">
+        <v>3</v>
+      </c>
+      <c r="N117" s="1"/>
+      <c r="O117" s="11">
         <v>6.5</v>
       </c>
-      <c r="O117" s="1"/>
-      <c r="P117" s="11">
+      <c r="P117" s="1"/>
+      <c r="Q117" s="11">
         <v>19.5</v>
       </c>
-      <c r="Q117" s="13">
+      <c r="R117" s="13">
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="2" t="s">
         <v>125</v>
@@ -6899,28 +7280,31 @@
         <v>29</v>
       </c>
       <c r="H118" s="1"/>
-      <c r="I118" s="6">
-        <v>44897.068055555559</v>
+      <c r="I118" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J118" s="6">
         <v>44897.068055555559</v>
       </c>
-      <c r="L118" s="2">
-        <v>3</v>
-      </c>
-      <c r="M118" s="1"/>
-      <c r="N118" s="11">
+      <c r="K118" s="6">
+        <v>44897.068055555559</v>
+      </c>
+      <c r="M118" s="2">
+        <v>3</v>
+      </c>
+      <c r="N118" s="1"/>
+      <c r="O118" s="11">
         <v>7.375</v>
       </c>
-      <c r="O118" s="1"/>
-      <c r="P118" s="11">
+      <c r="P118" s="1"/>
+      <c r="Q118" s="11">
         <v>22.125</v>
       </c>
-      <c r="Q118" s="13">
+      <c r="R118" s="13">
         <v>4.916666666666667</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>126</v>
@@ -6941,28 +7325,31 @@
         <v>48</v>
       </c>
       <c r="H119" s="1"/>
-      <c r="I119" s="6">
-        <v>44898.068055555559</v>
+      <c r="I119" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J119" s="6">
         <v>44898.068055555559</v>
       </c>
-      <c r="L119" s="2">
-        <v>3</v>
-      </c>
-      <c r="M119" s="1"/>
-      <c r="N119" s="11">
+      <c r="K119" s="6">
+        <v>44898.068055555559</v>
+      </c>
+      <c r="M119" s="2">
+        <v>3</v>
+      </c>
+      <c r="N119" s="1"/>
+      <c r="O119" s="11">
         <v>12.75</v>
       </c>
-      <c r="O119" s="1"/>
-      <c r="P119" s="11">
+      <c r="P119" s="1"/>
+      <c r="Q119" s="11">
         <v>38.25</v>
       </c>
-      <c r="Q119" s="13">
+      <c r="R119" s="13">
         <v>8.5</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="2" t="s">
         <v>127</v>
@@ -6983,28 +7370,31 @@
         <v>65</v>
       </c>
       <c r="H120" s="1"/>
-      <c r="I120" s="6">
-        <v>44899.068055555559</v>
+      <c r="I120" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J120" s="6">
         <v>44899.068055555559</v>
       </c>
-      <c r="L120" s="2">
-        <v>3</v>
-      </c>
-      <c r="M120" s="1"/>
-      <c r="N120" s="11">
+      <c r="K120" s="6">
+        <v>44899.068055555559</v>
+      </c>
+      <c r="M120" s="2">
+        <v>3</v>
+      </c>
+      <c r="N120" s="1"/>
+      <c r="O120" s="11">
         <v>10.875</v>
       </c>
-      <c r="O120" s="1"/>
-      <c r="P120" s="11">
+      <c r="P120" s="1"/>
+      <c r="Q120" s="11">
         <v>32.625</v>
       </c>
-      <c r="Q120" s="13">
+      <c r="R120" s="13">
         <v>7.25</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="2" t="s">
         <v>128</v>
@@ -7025,28 +7415,31 @@
         <v>1</v>
       </c>
       <c r="H121" s="1"/>
-      <c r="I121" s="6">
-        <v>44900.068055555559</v>
+      <c r="I121" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J121" s="6">
         <v>44900.068055555559</v>
       </c>
-      <c r="L121" s="2">
-        <v>3</v>
-      </c>
-      <c r="M121" s="1"/>
-      <c r="N121" s="11">
+      <c r="K121" s="6">
+        <v>44900.068055555559</v>
+      </c>
+      <c r="M121" s="2">
+        <v>3</v>
+      </c>
+      <c r="N121" s="1"/>
+      <c r="O121" s="11">
         <v>11.25</v>
       </c>
-      <c r="O121" s="1"/>
-      <c r="P121" s="11">
+      <c r="P121" s="1"/>
+      <c r="Q121" s="11">
         <v>33.75</v>
       </c>
-      <c r="Q121" s="13">
+      <c r="R121" s="13">
         <v>7.5</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="2" t="s">
         <v>129</v>
@@ -7067,28 +7460,31 @@
         <v>66</v>
       </c>
       <c r="H122" s="1"/>
-      <c r="I122" s="6">
-        <v>44901.068055555559</v>
+      <c r="I122" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J122" s="6">
         <v>44901.068055555559</v>
       </c>
-      <c r="L122" s="2">
-        <v>3</v>
-      </c>
-      <c r="M122" s="1"/>
-      <c r="N122" s="11">
+      <c r="K122" s="6">
+        <v>44901.068055555559</v>
+      </c>
+      <c r="M122" s="2">
+        <v>3</v>
+      </c>
+      <c r="N122" s="1"/>
+      <c r="O122" s="11">
         <v>13.125</v>
       </c>
-      <c r="O122" s="1"/>
-      <c r="P122" s="11">
+      <c r="P122" s="1"/>
+      <c r="Q122" s="11">
         <v>39.375</v>
       </c>
-      <c r="Q122" s="13">
+      <c r="R122" s="13">
         <v>8.75</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="2" t="s">
         <v>130</v>
@@ -7109,28 +7505,31 @@
         <v>8</v>
       </c>
       <c r="H123" s="1"/>
-      <c r="I123" s="6">
-        <v>44902.068055555559</v>
+      <c r="I123" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J123" s="6">
         <v>44902.068055555559</v>
       </c>
-      <c r="L123" s="2">
-        <v>3</v>
-      </c>
-      <c r="M123" s="1"/>
-      <c r="N123" s="11">
+      <c r="K123" s="6">
+        <v>44902.068055555559</v>
+      </c>
+      <c r="M123" s="2">
+        <v>3</v>
+      </c>
+      <c r="N123" s="1"/>
+      <c r="O123" s="11">
         <v>14.25</v>
       </c>
-      <c r="O123" s="1"/>
-      <c r="P123" s="11">
+      <c r="P123" s="1"/>
+      <c r="Q123" s="11">
         <v>42.75</v>
       </c>
-      <c r="Q123" s="13">
+      <c r="R123" s="13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="2" t="s">
         <v>131</v>
@@ -7151,28 +7550,31 @@
         <v>10</v>
       </c>
       <c r="H124" s="1"/>
-      <c r="I124" s="6">
-        <v>44903.068055555559</v>
+      <c r="I124" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J124" s="6">
         <v>44903.068055555559</v>
       </c>
-      <c r="L124" s="2">
-        <v>3</v>
-      </c>
-      <c r="M124" s="1"/>
-      <c r="N124" s="11">
+      <c r="K124" s="6">
+        <v>44903.068055555559</v>
+      </c>
+      <c r="M124" s="2">
+        <v>3</v>
+      </c>
+      <c r="N124" s="1"/>
+      <c r="O124" s="11">
         <v>7.25</v>
       </c>
-      <c r="O124" s="1"/>
-      <c r="P124" s="11">
+      <c r="P124" s="1"/>
+      <c r="Q124" s="11">
         <v>21.75</v>
       </c>
-      <c r="Q124" s="13">
+      <c r="R124" s="13">
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="2" t="s">
         <v>132</v>
@@ -7193,28 +7595,31 @@
         <v>23</v>
       </c>
       <c r="H125" s="1"/>
-      <c r="I125" s="6">
-        <v>44904.068055555559</v>
+      <c r="I125" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J125" s="6">
         <v>44904.068055555559</v>
       </c>
-      <c r="L125" s="2">
-        <v>3</v>
-      </c>
-      <c r="M125" s="1"/>
-      <c r="N125" s="11">
+      <c r="K125" s="6">
+        <v>44904.068055555559</v>
+      </c>
+      <c r="M125" s="2">
+        <v>3</v>
+      </c>
+      <c r="N125" s="1"/>
+      <c r="O125" s="11">
         <v>11.25</v>
       </c>
-      <c r="O125" s="1"/>
-      <c r="P125" s="11">
+      <c r="P125" s="1"/>
+      <c r="Q125" s="11">
         <v>33.75</v>
       </c>
-      <c r="Q125" s="13">
+      <c r="R125" s="13">
         <v>7.5</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="2" t="s">
         <v>133</v>
@@ -7235,28 +7640,31 @@
         <v>34</v>
       </c>
       <c r="H126" s="1"/>
-      <c r="I126" s="6">
-        <v>44905.068055555559</v>
+      <c r="I126" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J126" s="6">
         <v>44905.068055555559</v>
       </c>
-      <c r="L126" s="2">
-        <v>3</v>
-      </c>
-      <c r="M126" s="1"/>
-      <c r="N126" s="11">
+      <c r="K126" s="6">
+        <v>44905.068055555559</v>
+      </c>
+      <c r="M126" s="2">
+        <v>3</v>
+      </c>
+      <c r="N126" s="1"/>
+      <c r="O126" s="11">
         <v>12.375</v>
       </c>
-      <c r="O126" s="1"/>
-      <c r="P126" s="11">
+      <c r="P126" s="1"/>
+      <c r="Q126" s="11">
         <v>37.125</v>
       </c>
-      <c r="Q126" s="13">
+      <c r="R126" s="13">
         <v>8.25</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="2" t="s">
         <v>134</v>
@@ -7277,28 +7685,31 @@
         <v>58</v>
       </c>
       <c r="H127" s="1"/>
-      <c r="I127" s="6">
-        <v>44906.068055555559</v>
+      <c r="I127" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J127" s="6">
         <v>44906.068055555559</v>
       </c>
-      <c r="L127" s="2">
-        <v>3</v>
-      </c>
-      <c r="M127" s="1"/>
-      <c r="N127" s="11">
+      <c r="K127" s="6">
+        <v>44906.068055555559</v>
+      </c>
+      <c r="M127" s="2">
+        <v>3</v>
+      </c>
+      <c r="N127" s="1"/>
+      <c r="O127" s="11">
         <v>13.75</v>
       </c>
-      <c r="O127" s="1"/>
-      <c r="P127" s="11">
+      <c r="P127" s="1"/>
+      <c r="Q127" s="11">
         <v>41.25</v>
       </c>
-      <c r="Q127" s="13">
+      <c r="R127" s="13">
         <v>9.1666666666666661</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="2" t="s">
         <v>120</v>
@@ -7319,28 +7730,31 @@
         <v>49</v>
       </c>
       <c r="H128" s="1"/>
-      <c r="I128" s="6">
-        <v>44907.068055555559</v>
+      <c r="I128" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J128" s="6">
         <v>44907.068055555559</v>
       </c>
-      <c r="L128" s="2">
-        <v>3</v>
-      </c>
-      <c r="M128" s="1"/>
-      <c r="N128" s="11">
+      <c r="K128" s="6">
+        <v>44907.068055555559</v>
+      </c>
+      <c r="M128" s="2">
+        <v>3</v>
+      </c>
+      <c r="N128" s="1"/>
+      <c r="O128" s="11">
         <v>10</v>
       </c>
-      <c r="O128" s="1"/>
-      <c r="P128" s="11">
+      <c r="P128" s="1"/>
+      <c r="Q128" s="11">
         <v>30</v>
       </c>
-      <c r="Q128" s="13">
+      <c r="R128" s="13">
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="2" t="s">
         <v>135</v>
@@ -7361,28 +7775,31 @@
         <v>56</v>
       </c>
       <c r="H129" s="1"/>
-      <c r="I129" s="6">
-        <v>44908.068055555559</v>
+      <c r="I129" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J129" s="6">
         <v>44908.068055555559</v>
       </c>
-      <c r="L129" s="2">
-        <v>3</v>
-      </c>
-      <c r="M129" s="1"/>
-      <c r="N129" s="11">
+      <c r="K129" s="6">
+        <v>44908.068055555559</v>
+      </c>
+      <c r="M129" s="2">
+        <v>3</v>
+      </c>
+      <c r="N129" s="1"/>
+      <c r="O129" s="11">
         <v>13.375</v>
       </c>
-      <c r="O129" s="1"/>
-      <c r="P129" s="11">
+      <c r="P129" s="1"/>
+      <c r="Q129" s="11">
         <v>40.125</v>
       </c>
-      <c r="Q129" s="13">
+      <c r="R129" s="13">
         <v>8.9166666666666661</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="2" t="s">
         <v>136</v>
@@ -7403,28 +7820,31 @@
         <v>50</v>
       </c>
       <c r="H130" s="1"/>
-      <c r="I130" s="6">
-        <v>44909.068055555559</v>
+      <c r="I130" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J130" s="6">
         <v>44909.068055555559</v>
       </c>
-      <c r="L130" s="2">
-        <v>3</v>
-      </c>
-      <c r="M130" s="1"/>
-      <c r="N130" s="11">
+      <c r="K130" s="6">
+        <v>44909.068055555559</v>
+      </c>
+      <c r="M130" s="2">
+        <v>3</v>
+      </c>
+      <c r="N130" s="1"/>
+      <c r="O130" s="11">
         <v>14.5</v>
       </c>
-      <c r="O130" s="1"/>
-      <c r="P130" s="11">
+      <c r="P130" s="1"/>
+      <c r="Q130" s="11">
         <v>43.5</v>
       </c>
-      <c r="Q130" s="13">
+      <c r="R130" s="13">
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="2" t="s">
         <v>137</v>
@@ -7445,28 +7865,31 @@
         <v>69</v>
       </c>
       <c r="H131" s="1"/>
-      <c r="I131" s="6">
-        <v>44910.068055555559</v>
+      <c r="I131" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J131" s="6">
         <v>44910.068055555559</v>
       </c>
-      <c r="L131" s="2">
-        <v>3</v>
-      </c>
-      <c r="M131" s="1"/>
-      <c r="N131" s="11">
+      <c r="K131" s="6">
+        <v>44910.068055555559</v>
+      </c>
+      <c r="M131" s="2">
+        <v>3</v>
+      </c>
+      <c r="N131" s="1"/>
+      <c r="O131" s="11">
         <v>7.75</v>
       </c>
-      <c r="O131" s="1"/>
-      <c r="P131" s="11">
+      <c r="P131" s="1"/>
+      <c r="Q131" s="11">
         <v>23.25</v>
       </c>
-      <c r="Q131" s="13">
+      <c r="R131" s="13">
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>138</v>
@@ -7487,28 +7910,31 @@
         <v>25</v>
       </c>
       <c r="H132" s="1"/>
-      <c r="I132" s="6">
-        <v>44911.068055555559</v>
+      <c r="I132" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J132" s="6">
         <v>44911.068055555559</v>
       </c>
-      <c r="L132" s="2">
-        <v>3</v>
-      </c>
-      <c r="M132" s="1"/>
-      <c r="N132" s="11">
+      <c r="K132" s="6">
+        <v>44911.068055555559</v>
+      </c>
+      <c r="M132" s="2">
+        <v>3</v>
+      </c>
+      <c r="N132" s="1"/>
+      <c r="O132" s="11">
         <v>10.875</v>
       </c>
-      <c r="O132" s="1"/>
-      <c r="P132" s="11">
+      <c r="P132" s="1"/>
+      <c r="Q132" s="11">
         <v>32.625</v>
       </c>
-      <c r="Q132" s="13">
+      <c r="R132" s="13">
         <v>7.25</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="2" t="s">
         <v>139</v>
@@ -7529,28 +7955,31 @@
         <v>41</v>
       </c>
       <c r="H133" s="1"/>
-      <c r="I133" s="6">
-        <v>44912.068055555559</v>
+      <c r="I133" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J133" s="6">
         <v>44912.068055555559</v>
       </c>
-      <c r="L133" s="2">
-        <v>3</v>
-      </c>
-      <c r="M133" s="1"/>
-      <c r="N133" s="11">
+      <c r="K133" s="6">
+        <v>44912.068055555559</v>
+      </c>
+      <c r="M133" s="2">
+        <v>3</v>
+      </c>
+      <c r="N133" s="1"/>
+      <c r="O133" s="11">
         <v>7.5</v>
       </c>
-      <c r="O133" s="1"/>
-      <c r="P133" s="11">
+      <c r="P133" s="1"/>
+      <c r="Q133" s="11">
         <v>22.5</v>
       </c>
-      <c r="Q133" s="13">
+      <c r="R133" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="2" t="s">
         <v>140</v>
@@ -7571,28 +8000,31 @@
         <v>25</v>
       </c>
       <c r="H134" s="1"/>
-      <c r="I134" s="6">
-        <v>44913.068055555559</v>
+      <c r="I134" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J134" s="6">
         <v>44913.068055555559</v>
       </c>
-      <c r="L134" s="2">
-        <v>3</v>
-      </c>
-      <c r="M134" s="1"/>
-      <c r="N134" s="11">
+      <c r="K134" s="6">
+        <v>44913.068055555559</v>
+      </c>
+      <c r="M134" s="2">
+        <v>3</v>
+      </c>
+      <c r="N134" s="1"/>
+      <c r="O134" s="11">
         <v>7.125</v>
       </c>
-      <c r="O134" s="1"/>
-      <c r="P134" s="11">
+      <c r="P134" s="1"/>
+      <c r="Q134" s="11">
         <v>21.375</v>
       </c>
-      <c r="Q134" s="13">
+      <c r="R134" s="13">
         <v>4.75</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="2" t="s">
         <v>141</v>
@@ -7613,28 +8045,31 @@
         <v>15</v>
       </c>
       <c r="H135" s="1"/>
-      <c r="I135" s="6">
-        <v>44914.068055555559</v>
+      <c r="I135" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J135" s="6">
         <v>44914.068055555559</v>
       </c>
-      <c r="L135" s="2">
-        <v>3</v>
-      </c>
-      <c r="M135" s="1"/>
-      <c r="N135" s="11">
+      <c r="K135" s="6">
+        <v>44914.068055555559</v>
+      </c>
+      <c r="M135" s="2">
+        <v>3</v>
+      </c>
+      <c r="N135" s="1"/>
+      <c r="O135" s="11">
         <v>9.875</v>
       </c>
-      <c r="O135" s="1"/>
-      <c r="P135" s="11">
+      <c r="P135" s="1"/>
+      <c r="Q135" s="11">
         <v>29.625</v>
       </c>
-      <c r="Q135" s="13">
+      <c r="R135" s="13">
         <v>6.583333333333333</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="2" t="s">
         <v>142</v>
@@ -7655,28 +8090,31 @@
         <v>56</v>
       </c>
       <c r="H136" s="1"/>
-      <c r="I136" s="6">
-        <v>44915.068055555559</v>
+      <c r="I136" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J136" s="6">
         <v>44915.068055555559</v>
       </c>
-      <c r="L136" s="2">
-        <v>3</v>
-      </c>
-      <c r="M136" s="1"/>
-      <c r="N136" s="11">
+      <c r="K136" s="6">
+        <v>44915.068055555559</v>
+      </c>
+      <c r="M136" s="2">
+        <v>3</v>
+      </c>
+      <c r="N136" s="1"/>
+      <c r="O136" s="11">
         <v>8.375</v>
       </c>
-      <c r="O136" s="1"/>
-      <c r="P136" s="11">
+      <c r="P136" s="1"/>
+      <c r="Q136" s="11">
         <v>25.125</v>
       </c>
-      <c r="Q136" s="13">
+      <c r="R136" s="13">
         <v>5.583333333333333</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="2" t="s">
         <v>143</v>
@@ -7697,28 +8135,31 @@
         <v>76</v>
       </c>
       <c r="H137" s="1"/>
-      <c r="I137" s="6">
-        <v>44916.068055555559</v>
+      <c r="I137" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J137" s="6">
         <v>44916.068055555559</v>
       </c>
-      <c r="L137" s="2">
-        <v>3</v>
-      </c>
-      <c r="M137" s="1"/>
-      <c r="N137" s="11">
+      <c r="K137" s="6">
+        <v>44916.068055555559</v>
+      </c>
+      <c r="M137" s="2">
+        <v>3</v>
+      </c>
+      <c r="N137" s="1"/>
+      <c r="O137" s="11">
         <v>14</v>
       </c>
-      <c r="O137" s="1"/>
-      <c r="P137" s="11">
+      <c r="P137" s="1"/>
+      <c r="Q137" s="11">
         <v>42</v>
       </c>
-      <c r="Q137" s="13">
+      <c r="R137" s="13">
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="2" t="s">
         <v>144</v>
@@ -7739,28 +8180,31 @@
         <v>7</v>
       </c>
       <c r="H138" s="1"/>
-      <c r="I138" s="6">
-        <v>44917.068055555559</v>
+      <c r="I138" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J138" s="6">
         <v>44917.068055555559</v>
       </c>
-      <c r="L138" s="2">
-        <v>3</v>
-      </c>
-      <c r="M138" s="1"/>
-      <c r="N138" s="11">
+      <c r="K138" s="6">
+        <v>44917.068055555559</v>
+      </c>
+      <c r="M138" s="2">
+        <v>3</v>
+      </c>
+      <c r="N138" s="1"/>
+      <c r="O138" s="11">
         <v>8.625</v>
       </c>
-      <c r="O138" s="1"/>
-      <c r="P138" s="11">
+      <c r="P138" s="1"/>
+      <c r="Q138" s="11">
         <v>25.875</v>
       </c>
-      <c r="Q138" s="13">
+      <c r="R138" s="13">
         <v>5.75</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="2" t="s">
         <v>145</v>
@@ -7781,28 +8225,31 @@
         <v>58</v>
       </c>
       <c r="H139" s="1"/>
-      <c r="I139" s="6">
-        <v>44918.068055555559</v>
+      <c r="I139" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J139" s="6">
         <v>44918.068055555559</v>
       </c>
-      <c r="L139" s="2">
-        <v>3</v>
-      </c>
-      <c r="M139" s="1"/>
-      <c r="N139" s="11">
+      <c r="K139" s="6">
+        <v>44918.068055555559</v>
+      </c>
+      <c r="M139" s="2">
+        <v>3</v>
+      </c>
+      <c r="N139" s="1"/>
+      <c r="O139" s="11">
         <v>7.125</v>
       </c>
-      <c r="O139" s="1"/>
-      <c r="P139" s="11">
+      <c r="P139" s="1"/>
+      <c r="Q139" s="11">
         <v>21.375</v>
       </c>
-      <c r="Q139" s="13">
+      <c r="R139" s="13">
         <v>4.75</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="2" t="s">
         <v>146</v>
@@ -7823,28 +8270,31 @@
         <v>20</v>
       </c>
       <c r="H140" s="1"/>
-      <c r="I140" s="6">
-        <v>44919.068055555559</v>
+      <c r="I140" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J140" s="6">
         <v>44919.068055555559</v>
       </c>
-      <c r="L140" s="2">
-        <v>3</v>
-      </c>
-      <c r="M140" s="1"/>
-      <c r="N140" s="11">
+      <c r="K140" s="6">
+        <v>44919.068055555559</v>
+      </c>
+      <c r="M140" s="2">
+        <v>3</v>
+      </c>
+      <c r="N140" s="1"/>
+      <c r="O140" s="11">
         <v>7.25</v>
       </c>
-      <c r="O140" s="1"/>
-      <c r="P140" s="11">
+      <c r="P140" s="1"/>
+      <c r="Q140" s="11">
         <v>21.75</v>
       </c>
-      <c r="Q140" s="13">
+      <c r="R140" s="13">
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="2" t="s">
         <v>147</v>
@@ -7865,28 +8315,31 @@
         <v>40</v>
       </c>
       <c r="H141" s="1"/>
-      <c r="I141" s="6">
-        <v>44920.068055555559</v>
+      <c r="I141" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="J141" s="6">
         <v>44920.068055555559</v>
       </c>
-      <c r="L141" s="2">
-        <v>3</v>
-      </c>
-      <c r="M141" s="1"/>
-      <c r="N141" s="11">
+      <c r="K141" s="6">
+        <v>44920.068055555559</v>
+      </c>
+      <c r="M141" s="2">
+        <v>3</v>
+      </c>
+      <c r="N141" s="1"/>
+      <c r="O141" s="11">
         <v>10</v>
       </c>
-      <c r="O141" s="1"/>
-      <c r="P141" s="11">
+      <c r="P141" s="1"/>
+      <c r="Q141" s="11">
         <v>30</v>
       </c>
-      <c r="Q141" s="13">
+      <c r="R141" s="13">
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="2" t="s">
         <v>148</v>
@@ -7907,28 +8360,31 @@
         <v>26</v>
       </c>
       <c r="H142" s="1"/>
-      <c r="I142" s="6">
-        <v>44921.068055555559</v>
+      <c r="I142" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="J142" s="6">
         <v>44921.068055555559</v>
       </c>
-      <c r="L142" s="2">
-        <v>3</v>
-      </c>
-      <c r="M142" s="1"/>
-      <c r="N142" s="11">
+      <c r="K142" s="6">
+        <v>44921.068055555559</v>
+      </c>
+      <c r="M142" s="2">
+        <v>3</v>
+      </c>
+      <c r="N142" s="1"/>
+      <c r="O142" s="11">
         <v>10.125</v>
       </c>
-      <c r="O142" s="1"/>
-      <c r="P142" s="11">
+      <c r="P142" s="1"/>
+      <c r="Q142" s="11">
         <v>30.375</v>
       </c>
-      <c r="Q142" s="13">
+      <c r="R142" s="13">
         <v>6.75</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="2" t="s">
         <v>149</v>
@@ -7949,28 +8405,31 @@
         <v>24</v>
       </c>
       <c r="H143" s="1"/>
-      <c r="I143" s="6">
-        <v>44922.068055555559</v>
+      <c r="I143" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J143" s="6">
         <v>44922.068055555559</v>
       </c>
-      <c r="L143" s="2">
-        <v>3</v>
-      </c>
-      <c r="M143" s="1"/>
-      <c r="N143" s="11">
+      <c r="K143" s="6">
+        <v>44922.068055555559</v>
+      </c>
+      <c r="M143" s="2">
+        <v>3</v>
+      </c>
+      <c r="N143" s="1"/>
+      <c r="O143" s="11">
         <v>9.625</v>
       </c>
-      <c r="O143" s="1"/>
-      <c r="P143" s="11">
+      <c r="P143" s="1"/>
+      <c r="Q143" s="11">
         <v>28.875</v>
       </c>
-      <c r="Q143" s="13">
+      <c r="R143" s="13">
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="2" t="s">
         <v>150</v>
@@ -7991,28 +8450,31 @@
         <v>52</v>
       </c>
       <c r="H144" s="1"/>
-      <c r="I144" s="6">
-        <v>44923.068055555559</v>
+      <c r="I144" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J144" s="6">
         <v>44923.068055555559</v>
       </c>
-      <c r="L144" s="2">
-        <v>3</v>
-      </c>
-      <c r="M144" s="1"/>
-      <c r="N144" s="11">
+      <c r="K144" s="6">
+        <v>44923.068055555559</v>
+      </c>
+      <c r="M144" s="2">
+        <v>3</v>
+      </c>
+      <c r="N144" s="1"/>
+      <c r="O144" s="11">
         <v>11.5</v>
       </c>
-      <c r="O144" s="1"/>
-      <c r="P144" s="11">
+      <c r="P144" s="1"/>
+      <c r="Q144" s="11">
         <v>34.5</v>
       </c>
-      <c r="Q144" s="13">
+      <c r="R144" s="13">
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="2" t="s">
         <v>151</v>
@@ -8033,28 +8495,31 @@
         <v>72</v>
       </c>
       <c r="H145" s="1"/>
-      <c r="I145" s="6">
-        <v>44924.068055555559</v>
+      <c r="I145" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J145" s="6">
         <v>44924.068055555559</v>
       </c>
-      <c r="L145" s="2">
-        <v>3</v>
-      </c>
-      <c r="M145" s="1"/>
-      <c r="N145" s="11">
+      <c r="K145" s="6">
+        <v>44924.068055555559</v>
+      </c>
+      <c r="M145" s="2">
+        <v>3</v>
+      </c>
+      <c r="N145" s="1"/>
+      <c r="O145" s="11">
         <v>11</v>
       </c>
-      <c r="O145" s="1"/>
-      <c r="P145" s="11">
+      <c r="P145" s="1"/>
+      <c r="Q145" s="11">
         <v>33</v>
       </c>
-      <c r="Q145" s="13">
+      <c r="R145" s="13">
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>152</v>
@@ -8075,28 +8540,31 @@
         <v>38</v>
       </c>
       <c r="H146" s="1"/>
-      <c r="I146" s="6">
-        <v>44925.068055555559</v>
+      <c r="I146" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J146" s="6">
         <v>44925.068055555559</v>
       </c>
-      <c r="L146" s="2">
-        <v>3</v>
-      </c>
-      <c r="M146" s="1"/>
-      <c r="N146" s="11">
+      <c r="K146" s="6">
+        <v>44925.068055555559</v>
+      </c>
+      <c r="M146" s="2">
+        <v>3</v>
+      </c>
+      <c r="N146" s="1"/>
+      <c r="O146" s="11">
         <v>13.25</v>
       </c>
-      <c r="O146" s="1"/>
-      <c r="P146" s="11">
+      <c r="P146" s="1"/>
+      <c r="Q146" s="11">
         <v>39.75</v>
       </c>
-      <c r="Q146" s="13">
+      <c r="R146" s="13">
         <v>8.8333333333333339</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="2" t="s">
         <v>153</v>
@@ -8117,28 +8585,31 @@
         <v>38</v>
       </c>
       <c r="H147" s="1"/>
-      <c r="I147" s="6">
-        <v>44926.068055555559</v>
+      <c r="I147" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J147" s="6">
         <v>44926.068055555559</v>
       </c>
-      <c r="L147" s="2">
-        <v>3</v>
-      </c>
-      <c r="M147" s="1"/>
-      <c r="N147" s="11">
+      <c r="K147" s="6">
+        <v>44926.068055555559</v>
+      </c>
+      <c r="M147" s="2">
+        <v>3</v>
+      </c>
+      <c r="N147" s="1"/>
+      <c r="O147" s="11">
         <v>15.125</v>
       </c>
-      <c r="O147" s="1"/>
-      <c r="P147" s="11">
+      <c r="P147" s="1"/>
+      <c r="Q147" s="11">
         <v>45.375</v>
       </c>
-      <c r="Q147" s="13">
+      <c r="R147" s="13">
         <v>10.083333333333334</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="2" t="s">
         <v>154</v>
@@ -8159,28 +8630,31 @@
         <v>8</v>
       </c>
       <c r="H148" s="1"/>
-      <c r="I148" s="6">
-        <v>44927.068055555559</v>
+      <c r="I148" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J148" s="6">
         <v>44927.068055555559</v>
       </c>
-      <c r="L148" s="2">
-        <v>3</v>
-      </c>
-      <c r="M148" s="1"/>
-      <c r="N148" s="11">
+      <c r="K148" s="6">
+        <v>44927.068055555559</v>
+      </c>
+      <c r="M148" s="2">
+        <v>3</v>
+      </c>
+      <c r="N148" s="1"/>
+      <c r="O148" s="11">
         <v>6.5</v>
       </c>
-      <c r="O148" s="1"/>
-      <c r="P148" s="11">
+      <c r="P148" s="1"/>
+      <c r="Q148" s="11">
         <v>19.5</v>
       </c>
-      <c r="Q148" s="13">
+      <c r="R148" s="13">
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="2" t="s">
         <v>155</v>
@@ -8201,28 +8675,31 @@
         <v>68</v>
       </c>
       <c r="H149" s="1"/>
-      <c r="I149" s="6">
-        <v>44928.068055555559</v>
+      <c r="I149" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J149" s="6">
         <v>44928.068055555559</v>
       </c>
-      <c r="L149" s="2">
-        <v>3</v>
-      </c>
-      <c r="M149" s="1"/>
-      <c r="N149" s="11">
+      <c r="K149" s="6">
+        <v>44928.068055555559</v>
+      </c>
+      <c r="M149" s="2">
+        <v>3</v>
+      </c>
+      <c r="N149" s="1"/>
+      <c r="O149" s="11">
         <v>15.375</v>
       </c>
-      <c r="O149" s="1"/>
-      <c r="P149" s="11">
+      <c r="P149" s="1"/>
+      <c r="Q149" s="11">
         <v>46.125</v>
       </c>
-      <c r="Q149" s="13">
+      <c r="R149" s="13">
         <v>10.25</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>156</v>
@@ -8243,28 +8720,31 @@
         <v>6</v>
       </c>
       <c r="H150" s="1"/>
-      <c r="I150" s="6">
-        <v>44929.068055555559</v>
+      <c r="I150" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J150" s="6">
         <v>44929.068055555559</v>
       </c>
-      <c r="L150" s="2">
-        <v>3</v>
-      </c>
-      <c r="M150" s="1"/>
-      <c r="N150" s="11">
+      <c r="K150" s="6">
+        <v>44929.068055555559</v>
+      </c>
+      <c r="M150" s="2">
+        <v>3</v>
+      </c>
+      <c r="N150" s="1"/>
+      <c r="O150" s="11">
         <v>10.125</v>
       </c>
-      <c r="O150" s="1"/>
-      <c r="P150" s="11">
+      <c r="P150" s="1"/>
+      <c r="Q150" s="11">
         <v>30.375</v>
       </c>
-      <c r="Q150" s="13">
+      <c r="R150" s="13">
         <v>6.75</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="2" t="s">
         <v>157</v>
@@ -8285,28 +8765,31 @@
         <v>12</v>
       </c>
       <c r="H151" s="1"/>
-      <c r="I151" s="6">
-        <v>44930.068055555559</v>
+      <c r="I151" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J151" s="6">
         <v>44930.068055555559</v>
       </c>
-      <c r="L151" s="2">
-        <v>3</v>
-      </c>
-      <c r="M151" s="1"/>
-      <c r="N151" s="11">
+      <c r="K151" s="6">
+        <v>44930.068055555559</v>
+      </c>
+      <c r="M151" s="2">
+        <v>3</v>
+      </c>
+      <c r="N151" s="1"/>
+      <c r="O151" s="11">
         <v>12.625</v>
       </c>
-      <c r="O151" s="1"/>
-      <c r="P151" s="11">
+      <c r="P151" s="1"/>
+      <c r="Q151" s="11">
         <v>37.875</v>
       </c>
-      <c r="Q151" s="13">
+      <c r="R151" s="13">
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="2" t="s">
         <v>158</v>
@@ -8327,28 +8810,31 @@
         <v>58</v>
       </c>
       <c r="H152" s="1"/>
-      <c r="I152" s="6">
-        <v>44931.068055555559</v>
+      <c r="I152" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J152" s="6">
         <v>44931.068055555559</v>
       </c>
-      <c r="L152" s="2">
-        <v>3</v>
-      </c>
-      <c r="M152" s="1"/>
-      <c r="N152" s="11">
+      <c r="K152" s="6">
+        <v>44931.068055555559</v>
+      </c>
+      <c r="M152" s="2">
+        <v>3</v>
+      </c>
+      <c r="N152" s="1"/>
+      <c r="O152" s="11">
         <v>7.875</v>
       </c>
-      <c r="O152" s="1"/>
-      <c r="P152" s="11">
+      <c r="P152" s="1"/>
+      <c r="Q152" s="11">
         <v>23.625</v>
       </c>
-      <c r="Q152" s="13">
+      <c r="R152" s="13">
         <v>5.25</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="2" t="s">
         <v>159</v>
@@ -8369,28 +8855,31 @@
         <v>57</v>
       </c>
       <c r="H153" s="1"/>
-      <c r="I153" s="6">
-        <v>44932.068055555559</v>
+      <c r="I153" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J153" s="6">
         <v>44932.068055555559</v>
       </c>
-      <c r="L153" s="2">
-        <v>3</v>
-      </c>
-      <c r="M153" s="1"/>
-      <c r="N153" s="11">
+      <c r="K153" s="6">
+        <v>44932.068055555559</v>
+      </c>
+      <c r="M153" s="2">
+        <v>3</v>
+      </c>
+      <c r="N153" s="1"/>
+      <c r="O153" s="11">
         <v>12.25</v>
       </c>
-      <c r="O153" s="1"/>
-      <c r="P153" s="11">
+      <c r="P153" s="1"/>
+      <c r="Q153" s="11">
         <v>36.75</v>
       </c>
-      <c r="Q153" s="13">
+      <c r="R153" s="13">
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="2" t="s">
         <v>160</v>
@@ -8411,28 +8900,31 @@
         <v>2</v>
       </c>
       <c r="H154" s="1"/>
-      <c r="I154" s="6">
-        <v>44933.068055555559</v>
+      <c r="I154" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J154" s="6">
         <v>44933.068055555559</v>
       </c>
-      <c r="L154" s="2">
-        <v>3</v>
-      </c>
-      <c r="M154" s="1"/>
-      <c r="N154" s="11">
+      <c r="K154" s="6">
+        <v>44933.068055555559</v>
+      </c>
+      <c r="M154" s="2">
+        <v>3</v>
+      </c>
+      <c r="N154" s="1"/>
+      <c r="O154" s="11">
         <v>13.5</v>
       </c>
-      <c r="O154" s="1"/>
-      <c r="P154" s="11">
+      <c r="P154" s="1"/>
+      <c r="Q154" s="11">
         <v>40.5</v>
       </c>
-      <c r="Q154" s="13">
+      <c r="R154" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="2" t="s">
         <v>150</v>
@@ -8453,28 +8945,31 @@
         <v>64</v>
       </c>
       <c r="H155" s="1"/>
-      <c r="I155" s="6">
-        <v>44934.068055555559</v>
+      <c r="I155" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J155" s="6">
         <v>44934.068055555559</v>
       </c>
-      <c r="L155" s="2">
-        <v>3</v>
-      </c>
-      <c r="M155" s="1"/>
-      <c r="N155" s="11">
+      <c r="K155" s="6">
+        <v>44934.068055555559</v>
+      </c>
+      <c r="M155" s="2">
+        <v>3</v>
+      </c>
+      <c r="N155" s="1"/>
+      <c r="O155" s="11">
         <v>12.875</v>
       </c>
-      <c r="O155" s="1"/>
-      <c r="P155" s="11">
+      <c r="P155" s="1"/>
+      <c r="Q155" s="11">
         <v>38.625</v>
       </c>
-      <c r="Q155" s="13">
+      <c r="R155" s="13">
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="2" t="s">
         <v>161</v>
@@ -8495,28 +8990,31 @@
         <v>72</v>
       </c>
       <c r="H156" s="1"/>
-      <c r="I156" s="6">
-        <v>44935.068055555559</v>
+      <c r="I156" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J156" s="6">
         <v>44935.068055555559</v>
       </c>
-      <c r="L156" s="2">
-        <v>3</v>
-      </c>
-      <c r="M156" s="1"/>
-      <c r="N156" s="11">
+      <c r="K156" s="6">
+        <v>44935.068055555559</v>
+      </c>
+      <c r="M156" s="2">
+        <v>3</v>
+      </c>
+      <c r="N156" s="1"/>
+      <c r="O156" s="11">
         <v>7</v>
       </c>
-      <c r="O156" s="1"/>
-      <c r="P156" s="11">
+      <c r="P156" s="1"/>
+      <c r="Q156" s="11">
         <v>21</v>
       </c>
-      <c r="Q156" s="13">
+      <c r="R156" s="13">
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="2" t="s">
         <v>162</v>
@@ -8537,28 +9035,31 @@
         <v>16</v>
       </c>
       <c r="H157" s="1"/>
-      <c r="I157" s="6">
-        <v>44936.068055555559</v>
+      <c r="I157" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J157" s="6">
         <v>44936.068055555559</v>
       </c>
-      <c r="L157" s="2">
-        <v>3</v>
-      </c>
-      <c r="M157" s="1"/>
-      <c r="N157" s="11">
+      <c r="K157" s="6">
+        <v>44936.068055555559</v>
+      </c>
+      <c r="M157" s="2">
+        <v>3</v>
+      </c>
+      <c r="N157" s="1"/>
+      <c r="O157" s="11">
         <v>6.375</v>
       </c>
-      <c r="O157" s="1"/>
-      <c r="P157" s="11">
+      <c r="P157" s="1"/>
+      <c r="Q157" s="11">
         <v>19.125</v>
       </c>
-      <c r="Q157" s="13">
+      <c r="R157" s="13">
         <v>4.25</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="2" t="s">
         <v>163</v>
@@ -8579,28 +9080,31 @@
         <v>41</v>
       </c>
       <c r="H158" s="1"/>
-      <c r="I158" s="6">
-        <v>44937.068055555559</v>
+      <c r="I158" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J158" s="6">
         <v>44937.068055555559</v>
       </c>
-      <c r="L158" s="2">
-        <v>3</v>
-      </c>
-      <c r="M158" s="1"/>
-      <c r="N158" s="11">
+      <c r="K158" s="6">
+        <v>44937.068055555559</v>
+      </c>
+      <c r="M158" s="2">
+        <v>3</v>
+      </c>
+      <c r="N158" s="1"/>
+      <c r="O158" s="11">
         <v>13.125</v>
       </c>
-      <c r="O158" s="1"/>
-      <c r="P158" s="11">
+      <c r="P158" s="1"/>
+      <c r="Q158" s="11">
         <v>39.375</v>
       </c>
-      <c r="Q158" s="13">
+      <c r="R158" s="13">
         <v>8.75</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="2" t="s">
         <v>164</v>
@@ -8621,28 +9125,31 @@
         <v>79</v>
       </c>
       <c r="H159" s="1"/>
-      <c r="I159" s="6">
-        <v>44938.068055555559</v>
+      <c r="I159" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J159" s="6">
         <v>44938.068055555559</v>
       </c>
-      <c r="L159" s="2">
-        <v>3</v>
-      </c>
-      <c r="M159" s="1"/>
-      <c r="N159" s="11">
+      <c r="K159" s="6">
+        <v>44938.068055555559</v>
+      </c>
+      <c r="M159" s="2">
+        <v>3</v>
+      </c>
+      <c r="N159" s="1"/>
+      <c r="O159" s="11">
         <v>14.5</v>
       </c>
-      <c r="O159" s="1"/>
-      <c r="P159" s="11">
+      <c r="P159" s="1"/>
+      <c r="Q159" s="11">
         <v>43.5</v>
       </c>
-      <c r="Q159" s="13">
+      <c r="R159" s="13">
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="2" t="s">
         <v>165</v>
@@ -8663,28 +9170,31 @@
         <v>15</v>
       </c>
       <c r="H160" s="1"/>
-      <c r="I160" s="6">
-        <v>44939.068055555559</v>
+      <c r="I160" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J160" s="6">
         <v>44939.068055555559</v>
       </c>
-      <c r="L160" s="2">
-        <v>3</v>
-      </c>
-      <c r="M160" s="1"/>
-      <c r="N160" s="11">
+      <c r="K160" s="6">
+        <v>44939.068055555559</v>
+      </c>
+      <c r="M160" s="2">
+        <v>3</v>
+      </c>
+      <c r="N160" s="1"/>
+      <c r="O160" s="11">
         <v>11</v>
       </c>
-      <c r="O160" s="1"/>
-      <c r="P160" s="11">
+      <c r="P160" s="1"/>
+      <c r="Q160" s="11">
         <v>33</v>
       </c>
-      <c r="Q160" s="13">
+      <c r="R160" s="13">
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="2" t="s">
         <v>166</v>
@@ -8705,28 +9215,31 @@
         <v>23</v>
       </c>
       <c r="H161" s="1"/>
-      <c r="I161" s="6">
-        <v>44940.068055555559</v>
+      <c r="I161" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J161" s="6">
         <v>44940.068055555559</v>
       </c>
-      <c r="L161" s="2">
-        <v>3</v>
-      </c>
-      <c r="M161" s="1"/>
-      <c r="N161" s="11">
+      <c r="K161" s="6">
+        <v>44940.068055555559</v>
+      </c>
+      <c r="M161" s="2">
+        <v>3</v>
+      </c>
+      <c r="N161" s="1"/>
+      <c r="O161" s="11">
         <v>6.875</v>
       </c>
-      <c r="O161" s="1"/>
-      <c r="P161" s="11">
+      <c r="P161" s="1"/>
+      <c r="Q161" s="11">
         <v>20.625</v>
       </c>
-      <c r="Q161" s="13">
+      <c r="R161" s="13">
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="2" t="s">
         <v>167</v>
@@ -8747,28 +9260,31 @@
         <v>31</v>
       </c>
       <c r="H162" s="1"/>
-      <c r="I162" s="6">
-        <v>44941.068055555559</v>
+      <c r="I162" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J162" s="6">
         <v>44941.068055555559</v>
       </c>
-      <c r="L162" s="2">
-        <v>3</v>
-      </c>
-      <c r="M162" s="1"/>
-      <c r="N162" s="11">
+      <c r="K162" s="6">
+        <v>44941.068055555559</v>
+      </c>
+      <c r="M162" s="2">
+        <v>3</v>
+      </c>
+      <c r="N162" s="1"/>
+      <c r="O162" s="11">
         <v>7.125</v>
       </c>
-      <c r="O162" s="1"/>
-      <c r="P162" s="11">
+      <c r="P162" s="1"/>
+      <c r="Q162" s="11">
         <v>21.375</v>
       </c>
-      <c r="Q162" s="13">
+      <c r="R162" s="13">
         <v>4.75</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="2" t="s">
         <v>168</v>
@@ -8789,28 +9305,31 @@
         <v>21</v>
       </c>
       <c r="H163" s="1"/>
-      <c r="I163" s="6">
-        <v>44942.068055555559</v>
+      <c r="I163" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J163" s="6">
         <v>44942.068055555559</v>
       </c>
-      <c r="L163" s="2">
-        <v>3</v>
-      </c>
-      <c r="M163" s="1"/>
-      <c r="N163" s="11">
+      <c r="K163" s="6">
+        <v>44942.068055555559</v>
+      </c>
+      <c r="M163" s="2">
+        <v>3</v>
+      </c>
+      <c r="N163" s="1"/>
+      <c r="O163" s="11">
         <v>6.875</v>
       </c>
-      <c r="O163" s="1"/>
-      <c r="P163" s="11">
+      <c r="P163" s="1"/>
+      <c r="Q163" s="11">
         <v>20.625</v>
       </c>
-      <c r="Q163" s="13">
+      <c r="R163" s="13">
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="2" t="s">
         <v>169</v>
@@ -8831,28 +9350,31 @@
         <v>56</v>
       </c>
       <c r="H164" s="1"/>
-      <c r="I164" s="6">
-        <v>44943.068055555559</v>
+      <c r="I164" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J164" s="6">
         <v>44943.068055555559</v>
       </c>
-      <c r="L164" s="2">
-        <v>3</v>
-      </c>
-      <c r="M164" s="1"/>
-      <c r="N164" s="11">
+      <c r="K164" s="6">
+        <v>44943.068055555559</v>
+      </c>
+      <c r="M164" s="2">
+        <v>3</v>
+      </c>
+      <c r="N164" s="1"/>
+      <c r="O164" s="11">
         <v>8</v>
       </c>
-      <c r="O164" s="1"/>
-      <c r="P164" s="11">
+      <c r="P164" s="1"/>
+      <c r="Q164" s="11">
         <v>24</v>
       </c>
-      <c r="Q164" s="13">
+      <c r="R164" s="13">
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="2" t="s">
         <v>170</v>
@@ -8873,28 +9395,31 @@
         <v>43</v>
       </c>
       <c r="H165" s="1"/>
-      <c r="I165" s="6">
-        <v>44944.068055555559</v>
+      <c r="I165" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J165" s="6">
         <v>44944.068055555559</v>
       </c>
-      <c r="L165" s="2">
-        <v>3</v>
-      </c>
-      <c r="M165" s="1"/>
-      <c r="N165" s="11">
+      <c r="K165" s="6">
+        <v>44944.068055555559</v>
+      </c>
+      <c r="M165" s="2">
+        <v>3</v>
+      </c>
+      <c r="N165" s="1"/>
+      <c r="O165" s="11">
         <v>15.625</v>
       </c>
-      <c r="O165" s="1"/>
-      <c r="P165" s="11">
+      <c r="P165" s="1"/>
+      <c r="Q165" s="11">
         <v>46.875</v>
       </c>
-      <c r="Q165" s="13">
+      <c r="R165" s="13">
         <v>10.416666666666666</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="2" t="s">
         <v>161</v>
@@ -8915,28 +9440,31 @@
         <v>0</v>
       </c>
       <c r="H166" s="1"/>
-      <c r="I166" s="6">
-        <v>44945.068055555559</v>
+      <c r="I166" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J166" s="6">
         <v>44945.068055555559</v>
       </c>
-      <c r="L166" s="2">
-        <v>3</v>
-      </c>
-      <c r="M166" s="1"/>
-      <c r="N166" s="11">
+      <c r="K166" s="6">
+        <v>44945.068055555559</v>
+      </c>
+      <c r="M166" s="2">
+        <v>3</v>
+      </c>
+      <c r="N166" s="1"/>
+      <c r="O166" s="11">
         <v>10.75</v>
       </c>
-      <c r="O166" s="1"/>
-      <c r="P166" s="11">
+      <c r="P166" s="1"/>
+      <c r="Q166" s="11">
         <v>32.25</v>
       </c>
-      <c r="Q166" s="13">
+      <c r="R166" s="13">
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="2" t="s">
         <v>154</v>
@@ -8957,28 +9485,31 @@
         <v>67</v>
       </c>
       <c r="H167" s="1"/>
-      <c r="I167" s="6">
-        <v>44946.068055555559</v>
+      <c r="I167" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J167" s="6">
         <v>44946.068055555559</v>
       </c>
-      <c r="L167" s="2">
-        <v>3</v>
-      </c>
-      <c r="M167" s="1"/>
-      <c r="N167" s="11">
+      <c r="K167" s="6">
+        <v>44946.068055555559</v>
+      </c>
+      <c r="M167" s="2">
+        <v>3</v>
+      </c>
+      <c r="N167" s="1"/>
+      <c r="O167" s="11">
         <v>10.5</v>
       </c>
-      <c r="O167" s="1"/>
-      <c r="P167" s="11">
+      <c r="P167" s="1"/>
+      <c r="Q167" s="11">
         <v>31.5</v>
       </c>
-      <c r="Q167" s="13">
+      <c r="R167" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="2" t="s">
         <v>171</v>
@@ -8999,28 +9530,31 @@
         <v>45</v>
       </c>
       <c r="H168" s="1"/>
-      <c r="I168" s="6">
-        <v>44947.068055555559</v>
+      <c r="I168" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J168" s="6">
         <v>44947.068055555559</v>
       </c>
-      <c r="L168" s="2">
-        <v>3</v>
-      </c>
-      <c r="M168" s="1"/>
-      <c r="N168" s="11">
+      <c r="K168" s="6">
+        <v>44947.068055555559</v>
+      </c>
+      <c r="M168" s="2">
+        <v>3</v>
+      </c>
+      <c r="N168" s="1"/>
+      <c r="O168" s="11">
         <v>6.875</v>
       </c>
-      <c r="O168" s="1"/>
-      <c r="P168" s="11">
+      <c r="P168" s="1"/>
+      <c r="Q168" s="11">
         <v>20.625</v>
       </c>
-      <c r="Q168" s="13">
+      <c r="R168" s="13">
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="2" t="s">
         <v>172</v>
@@ -9041,28 +9575,31 @@
         <v>3</v>
       </c>
       <c r="H169" s="1"/>
-      <c r="I169" s="6">
-        <v>44948.068055555559</v>
+      <c r="I169" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J169" s="6">
         <v>44948.068055555559</v>
       </c>
-      <c r="L169" s="2">
-        <v>3</v>
-      </c>
-      <c r="M169" s="1"/>
-      <c r="N169" s="11">
+      <c r="K169" s="6">
+        <v>44948.068055555559</v>
+      </c>
+      <c r="M169" s="2">
+        <v>3</v>
+      </c>
+      <c r="N169" s="1"/>
+      <c r="O169" s="11">
         <v>13.625</v>
       </c>
-      <c r="O169" s="1"/>
-      <c r="P169" s="11">
+      <c r="P169" s="1"/>
+      <c r="Q169" s="11">
         <v>40.875</v>
       </c>
-      <c r="Q169" s="13">
+      <c r="R169" s="13">
         <v>9.0833333333333339</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="2" t="s">
         <v>173</v>
@@ -9083,28 +9620,31 @@
         <v>17</v>
       </c>
       <c r="H170" s="1"/>
-      <c r="I170" s="6">
-        <v>44949.068055555559</v>
+      <c r="I170" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J170" s="6">
         <v>44949.068055555559</v>
       </c>
-      <c r="L170" s="2">
-        <v>3</v>
-      </c>
-      <c r="M170" s="1"/>
-      <c r="N170" s="11">
+      <c r="K170" s="6">
+        <v>44949.068055555559</v>
+      </c>
+      <c r="M170" s="2">
+        <v>3</v>
+      </c>
+      <c r="N170" s="1"/>
+      <c r="O170" s="11">
         <v>9.125</v>
       </c>
-      <c r="O170" s="1"/>
-      <c r="P170" s="11">
+      <c r="P170" s="1"/>
+      <c r="Q170" s="11">
         <v>27.375</v>
       </c>
-      <c r="Q170" s="13">
+      <c r="R170" s="13">
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="2" t="s">
         <v>174</v>
@@ -9125,28 +9665,31 @@
         <v>1</v>
       </c>
       <c r="H171" s="1"/>
-      <c r="I171" s="6">
-        <v>44950.068055555559</v>
+      <c r="I171" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="J171" s="6">
         <v>44950.068055555559</v>
       </c>
-      <c r="L171" s="2">
-        <v>3</v>
-      </c>
-      <c r="M171" s="1"/>
-      <c r="N171" s="11">
+      <c r="K171" s="6">
+        <v>44950.068055555559</v>
+      </c>
+      <c r="M171" s="2">
+        <v>3</v>
+      </c>
+      <c r="N171" s="1"/>
+      <c r="O171" s="11">
         <v>12.875</v>
       </c>
-      <c r="O171" s="1"/>
-      <c r="P171" s="11">
+      <c r="P171" s="1"/>
+      <c r="Q171" s="11">
         <v>38.625</v>
       </c>
-      <c r="Q171" s="13">
+      <c r="R171" s="13">
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="2" t="s">
         <v>175</v>
@@ -9167,28 +9710,31 @@
         <v>32</v>
       </c>
       <c r="H172" s="1"/>
-      <c r="I172" s="6">
-        <v>44951.068055555559</v>
+      <c r="I172" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="J172" s="6">
         <v>44951.068055555559</v>
       </c>
-      <c r="L172" s="2">
-        <v>3</v>
-      </c>
-      <c r="M172" s="1"/>
-      <c r="N172" s="11">
+      <c r="K172" s="6">
+        <v>44951.068055555559</v>
+      </c>
+      <c r="M172" s="2">
+        <v>3</v>
+      </c>
+      <c r="N172" s="1"/>
+      <c r="O172" s="11">
         <v>9.625</v>
       </c>
-      <c r="O172" s="1"/>
-      <c r="P172" s="11">
+      <c r="P172" s="1"/>
+      <c r="Q172" s="11">
         <v>28.875</v>
       </c>
-      <c r="Q172" s="13">
+      <c r="R172" s="13">
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="2" t="s">
         <v>176</v>
@@ -9209,28 +9755,31 @@
         <v>65</v>
       </c>
       <c r="H173" s="1"/>
-      <c r="I173" s="6">
-        <v>44952.068055555559</v>
+      <c r="I173" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="J173" s="6">
         <v>44952.068055555559</v>
       </c>
-      <c r="L173" s="2">
-        <v>3</v>
-      </c>
-      <c r="M173" s="1"/>
-      <c r="N173" s="11">
+      <c r="K173" s="6">
+        <v>44952.068055555559</v>
+      </c>
+      <c r="M173" s="2">
+        <v>3</v>
+      </c>
+      <c r="N173" s="1"/>
+      <c r="O173" s="11">
         <v>15.625</v>
       </c>
-      <c r="O173" s="1"/>
-      <c r="P173" s="11">
+      <c r="P173" s="1"/>
+      <c r="Q173" s="11">
         <v>46.875</v>
       </c>
-      <c r="Q173" s="13">
+      <c r="R173" s="13">
         <v>10.416666666666666</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="2" t="s">
         <v>177</v>
@@ -9251,28 +9800,31 @@
         <v>14</v>
       </c>
       <c r="H174" s="1"/>
-      <c r="I174" s="6">
-        <v>44953.068055555559</v>
+      <c r="I174" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J174" s="6">
         <v>44953.068055555559</v>
       </c>
-      <c r="L174" s="2">
-        <v>3</v>
-      </c>
-      <c r="M174" s="1"/>
-      <c r="N174" s="11">
+      <c r="K174" s="6">
+        <v>44953.068055555559</v>
+      </c>
+      <c r="M174" s="2">
+        <v>3</v>
+      </c>
+      <c r="N174" s="1"/>
+      <c r="O174" s="11">
         <v>7</v>
       </c>
-      <c r="O174" s="1"/>
-      <c r="P174" s="11">
+      <c r="P174" s="1"/>
+      <c r="Q174" s="11">
         <v>21</v>
       </c>
-      <c r="Q174" s="13">
+      <c r="R174" s="13">
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="2" t="s">
         <v>178</v>
@@ -9293,28 +9845,31 @@
         <v>60</v>
       </c>
       <c r="H175" s="1"/>
-      <c r="I175" s="6">
-        <v>44954.068055555559</v>
+      <c r="I175" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J175" s="6">
         <v>44954.068055555559</v>
       </c>
-      <c r="L175" s="2">
-        <v>3</v>
-      </c>
-      <c r="M175" s="1"/>
-      <c r="N175" s="11">
+      <c r="K175" s="6">
+        <v>44954.068055555559</v>
+      </c>
+      <c r="M175" s="2">
+        <v>3</v>
+      </c>
+      <c r="N175" s="1"/>
+      <c r="O175" s="11">
         <v>13.625</v>
       </c>
-      <c r="O175" s="1"/>
-      <c r="P175" s="11">
+      <c r="P175" s="1"/>
+      <c r="Q175" s="11">
         <v>40.875</v>
       </c>
-      <c r="Q175" s="13">
+      <c r="R175" s="13">
         <v>9.0833333333333339</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="2" t="s">
         <v>161</v>
@@ -9335,28 +9890,31 @@
         <v>20</v>
       </c>
       <c r="H176" s="1"/>
-      <c r="I176" s="6">
-        <v>44955.068055555559</v>
+      <c r="I176" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J176" s="6">
         <v>44955.068055555559</v>
       </c>
-      <c r="L176" s="2">
-        <v>3</v>
-      </c>
-      <c r="M176" s="1"/>
-      <c r="N176" s="11">
+      <c r="K176" s="6">
+        <v>44955.068055555559</v>
+      </c>
+      <c r="M176" s="2">
+        <v>3</v>
+      </c>
+      <c r="N176" s="1"/>
+      <c r="O176" s="11">
         <v>8.625</v>
       </c>
-      <c r="O176" s="1"/>
-      <c r="P176" s="11">
+      <c r="P176" s="1"/>
+      <c r="Q176" s="11">
         <v>25.875</v>
       </c>
-      <c r="Q176" s="13">
+      <c r="R176" s="13">
         <v>5.75</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="2" t="s">
         <v>179</v>
@@ -9377,28 +9935,31 @@
         <v>43</v>
       </c>
       <c r="H177" s="1"/>
-      <c r="I177" s="6">
-        <v>44956.068055555559</v>
+      <c r="I177" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J177" s="6">
         <v>44956.068055555559</v>
       </c>
-      <c r="L177" s="2">
-        <v>3</v>
-      </c>
-      <c r="M177" s="1"/>
-      <c r="N177" s="11">
+      <c r="K177" s="6">
+        <v>44956.068055555559</v>
+      </c>
+      <c r="M177" s="2">
+        <v>3</v>
+      </c>
+      <c r="N177" s="1"/>
+      <c r="O177" s="11">
         <v>10.5</v>
       </c>
-      <c r="O177" s="1"/>
-      <c r="P177" s="11">
+      <c r="P177" s="1"/>
+      <c r="Q177" s="11">
         <v>31.5</v>
       </c>
-      <c r="Q177" s="13">
+      <c r="R177" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="2" t="s">
         <v>180</v>
@@ -9419,28 +9980,31 @@
         <v>37</v>
       </c>
       <c r="H178" s="1"/>
-      <c r="I178" s="6">
-        <v>44957.068055555559</v>
+      <c r="I178" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J178" s="6">
         <v>44957.068055555559</v>
       </c>
-      <c r="L178" s="2">
-        <v>3</v>
-      </c>
-      <c r="M178" s="1"/>
-      <c r="N178" s="11">
+      <c r="K178" s="6">
+        <v>44957.068055555559</v>
+      </c>
+      <c r="M178" s="2">
+        <v>3</v>
+      </c>
+      <c r="N178" s="1"/>
+      <c r="O178" s="11">
         <v>11.125</v>
       </c>
-      <c r="O178" s="1"/>
-      <c r="P178" s="11">
+      <c r="P178" s="1"/>
+      <c r="Q178" s="11">
         <v>33.375</v>
       </c>
-      <c r="Q178" s="13">
+      <c r="R178" s="13">
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="2" t="s">
         <v>181</v>
@@ -9461,28 +10025,31 @@
         <v>78</v>
       </c>
       <c r="H179" s="1"/>
-      <c r="I179" s="6">
-        <v>44958.068055555559</v>
+      <c r="I179" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J179" s="6">
         <v>44958.068055555559</v>
       </c>
-      <c r="L179" s="2">
-        <v>3</v>
-      </c>
-      <c r="M179" s="1"/>
-      <c r="N179" s="11">
+      <c r="K179" s="6">
+        <v>44958.068055555559</v>
+      </c>
+      <c r="M179" s="2">
+        <v>3</v>
+      </c>
+      <c r="N179" s="1"/>
+      <c r="O179" s="11">
         <v>8.125</v>
       </c>
-      <c r="O179" s="1"/>
-      <c r="P179" s="11">
+      <c r="P179" s="1"/>
+      <c r="Q179" s="11">
         <v>24.375</v>
       </c>
-      <c r="Q179" s="13">
+      <c r="R179" s="13">
         <v>5.416666666666667</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="2" t="s">
         <v>182</v>
@@ -9503,28 +10070,31 @@
         <v>66</v>
       </c>
       <c r="H180" s="1"/>
-      <c r="I180" s="6">
-        <v>44959.068055555559</v>
+      <c r="I180" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J180" s="6">
         <v>44959.068055555559</v>
       </c>
-      <c r="L180" s="2">
-        <v>3</v>
-      </c>
-      <c r="M180" s="1"/>
-      <c r="N180" s="11">
+      <c r="K180" s="6">
+        <v>44959.068055555559</v>
+      </c>
+      <c r="M180" s="2">
+        <v>3</v>
+      </c>
+      <c r="N180" s="1"/>
+      <c r="O180" s="11">
         <v>12.75</v>
       </c>
-      <c r="O180" s="1"/>
-      <c r="P180" s="11">
+      <c r="P180" s="1"/>
+      <c r="Q180" s="11">
         <v>38.25</v>
       </c>
-      <c r="Q180" s="13">
+      <c r="R180" s="13">
         <v>8.5</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="2" t="s">
         <v>183</v>
@@ -9545,28 +10115,31 @@
         <v>70</v>
       </c>
       <c r="H181" s="1"/>
-      <c r="I181" s="6">
-        <v>44960.068055555559</v>
+      <c r="I181" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="J181" s="6">
         <v>44960.068055555559</v>
       </c>
-      <c r="L181" s="2">
-        <v>3</v>
-      </c>
-      <c r="M181" s="1"/>
-      <c r="N181" s="11">
+      <c r="K181" s="6">
+        <v>44960.068055555559</v>
+      </c>
+      <c r="M181" s="2">
+        <v>3</v>
+      </c>
+      <c r="N181" s="1"/>
+      <c r="O181" s="11">
         <v>14.25</v>
       </c>
-      <c r="O181" s="1"/>
-      <c r="P181" s="11">
+      <c r="P181" s="1"/>
+      <c r="Q181" s="11">
         <v>42.75</v>
       </c>
-      <c r="Q181" s="13">
+      <c r="R181" s="13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="2" t="s">
         <v>184</v>
@@ -9587,28 +10160,31 @@
         <v>45</v>
       </c>
       <c r="H182" s="1"/>
-      <c r="I182" s="6">
-        <v>44961.068055555559</v>
+      <c r="I182" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="J182" s="6">
         <v>44961.068055555559</v>
       </c>
-      <c r="L182" s="2">
-        <v>3</v>
-      </c>
-      <c r="M182" s="1"/>
-      <c r="N182" s="11">
+      <c r="K182" s="6">
+        <v>44961.068055555559</v>
+      </c>
+      <c r="M182" s="2">
+        <v>3</v>
+      </c>
+      <c r="N182" s="1"/>
+      <c r="O182" s="11">
         <v>14.875</v>
       </c>
-      <c r="O182" s="1"/>
-      <c r="P182" s="11">
+      <c r="P182" s="1"/>
+      <c r="Q182" s="11">
         <v>44.625</v>
       </c>
-      <c r="Q182" s="13">
+      <c r="R182" s="13">
         <v>9.9166666666666661</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="2" t="s">
         <v>185</v>
@@ -9629,28 +10205,31 @@
         <v>40</v>
       </c>
       <c r="H183" s="1"/>
-      <c r="I183" s="6">
-        <v>44962.068055555559</v>
+      <c r="I183" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="J183" s="6">
         <v>44962.068055555559</v>
       </c>
-      <c r="L183" s="2">
-        <v>3</v>
-      </c>
-      <c r="M183" s="1"/>
-      <c r="N183" s="11">
+      <c r="K183" s="6">
+        <v>44962.068055555559</v>
+      </c>
+      <c r="M183" s="2">
+        <v>3</v>
+      </c>
+      <c r="N183" s="1"/>
+      <c r="O183" s="11">
         <v>14.375</v>
       </c>
-      <c r="O183" s="1"/>
-      <c r="P183" s="11">
+      <c r="P183" s="1"/>
+      <c r="Q183" s="11">
         <v>43.125</v>
       </c>
-      <c r="Q183" s="13">
+      <c r="R183" s="13">
         <v>9.5833333333333339</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="2" t="s">
         <v>186</v>
@@ -9671,28 +10250,31 @@
         <v>47</v>
       </c>
       <c r="H184" s="1"/>
-      <c r="I184" s="6">
-        <v>44963.068055555559</v>
+      <c r="I184" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J184" s="6">
         <v>44963.068055555559</v>
       </c>
-      <c r="L184" s="2">
-        <v>3</v>
-      </c>
-      <c r="M184" s="1"/>
-      <c r="N184" s="11">
+      <c r="K184" s="6">
+        <v>44963.068055555559</v>
+      </c>
+      <c r="M184" s="2">
+        <v>3</v>
+      </c>
+      <c r="N184" s="1"/>
+      <c r="O184" s="11">
         <v>7.5</v>
       </c>
-      <c r="O184" s="1"/>
-      <c r="P184" s="11">
+      <c r="P184" s="1"/>
+      <c r="Q184" s="11">
         <v>22.5</v>
       </c>
-      <c r="Q184" s="13">
+      <c r="R184" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="2" t="s">
         <v>187</v>
@@ -9713,28 +10295,31 @@
         <v>55</v>
       </c>
       <c r="H185" s="1"/>
-      <c r="I185" s="6">
-        <v>44964.068055555559</v>
+      <c r="I185" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J185" s="6">
         <v>44964.068055555559</v>
       </c>
-      <c r="L185" s="2">
-        <v>3</v>
-      </c>
-      <c r="M185" s="1"/>
-      <c r="N185" s="11">
+      <c r="K185" s="6">
+        <v>44964.068055555559</v>
+      </c>
+      <c r="M185" s="2">
+        <v>3</v>
+      </c>
+      <c r="N185" s="1"/>
+      <c r="O185" s="11">
         <v>7.25</v>
       </c>
-      <c r="O185" s="1"/>
-      <c r="P185" s="11">
+      <c r="P185" s="1"/>
+      <c r="Q185" s="11">
         <v>21.75</v>
       </c>
-      <c r="Q185" s="13">
+      <c r="R185" s="13">
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="2" t="s">
         <v>161</v>
@@ -9755,28 +10340,31 @@
         <v>3</v>
       </c>
       <c r="H186" s="1"/>
-      <c r="I186" s="6">
-        <v>44965.068055555559</v>
+      <c r="I186" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J186" s="6">
         <v>44965.068055555559</v>
       </c>
-      <c r="L186" s="2">
-        <v>3</v>
-      </c>
-      <c r="M186" s="1"/>
-      <c r="N186" s="11">
+      <c r="K186" s="6">
+        <v>44965.068055555559</v>
+      </c>
+      <c r="M186" s="2">
+        <v>3</v>
+      </c>
+      <c r="N186" s="1"/>
+      <c r="O186" s="11">
         <v>12.625</v>
       </c>
-      <c r="O186" s="1"/>
-      <c r="P186" s="11">
+      <c r="P186" s="1"/>
+      <c r="Q186" s="11">
         <v>37.875</v>
       </c>
-      <c r="Q186" s="13">
+      <c r="R186" s="13">
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="2" t="s">
         <v>188</v>
@@ -9797,28 +10385,31 @@
         <v>66</v>
       </c>
       <c r="H187" s="1"/>
-      <c r="I187" s="6">
-        <v>44966.068055555559</v>
+      <c r="I187" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J187" s="6">
         <v>44966.068055555559</v>
       </c>
-      <c r="L187" s="2">
-        <v>3</v>
-      </c>
-      <c r="M187" s="1"/>
-      <c r="N187" s="11">
+      <c r="K187" s="6">
+        <v>44966.068055555559</v>
+      </c>
+      <c r="M187" s="2">
+        <v>3</v>
+      </c>
+      <c r="N187" s="1"/>
+      <c r="O187" s="11">
         <v>15.375</v>
       </c>
-      <c r="O187" s="1"/>
-      <c r="P187" s="11">
+      <c r="P187" s="1"/>
+      <c r="Q187" s="11">
         <v>46.125</v>
       </c>
-      <c r="Q187" s="13">
+      <c r="R187" s="13">
         <v>10.25</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="2" t="s">
         <v>189</v>
@@ -9839,28 +10430,31 @@
         <v>57</v>
       </c>
       <c r="H188" s="1"/>
-      <c r="I188" s="6">
-        <v>44967.068055555559</v>
+      <c r="I188" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="J188" s="6">
         <v>44967.068055555559</v>
       </c>
-      <c r="L188" s="2">
+      <c r="K188" s="6">
+        <v>44967.068055555559</v>
+      </c>
+      <c r="M188" s="2">
         <v>5</v>
       </c>
-      <c r="M188" s="1"/>
-      <c r="N188" s="11">
+      <c r="N188" s="1"/>
+      <c r="O188" s="11">
         <v>25.208333333333336</v>
       </c>
-      <c r="O188" s="1"/>
-      <c r="P188" s="11">
+      <c r="P188" s="1"/>
+      <c r="Q188" s="11">
         <v>75.625</v>
       </c>
-      <c r="Q188" s="13">
+      <c r="R188" s="13">
         <v>10.083333333333334</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="2" t="s">
         <v>190</v>
@@ -9881,28 +10475,31 @@
         <v>16</v>
       </c>
       <c r="H189" s="1"/>
-      <c r="I189" s="6">
-        <v>44968.068055555559</v>
+      <c r="I189" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="J189" s="6">
         <v>44968.068055555559</v>
       </c>
-      <c r="L189" s="2">
+      <c r="K189" s="6">
+        <v>44968.068055555559</v>
+      </c>
+      <c r="M189" s="2">
         <v>5</v>
       </c>
-      <c r="M189" s="1"/>
-      <c r="N189" s="11">
+      <c r="N189" s="1"/>
+      <c r="O189" s="11">
         <v>23.75</v>
       </c>
-      <c r="O189" s="1"/>
-      <c r="P189" s="11">
+      <c r="P189" s="1"/>
+      <c r="Q189" s="11">
         <v>71.25</v>
       </c>
-      <c r="Q189" s="13">
+      <c r="R189" s="13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="2" t="s">
         <v>191</v>
@@ -9923,28 +10520,31 @@
         <v>63</v>
       </c>
       <c r="H190" s="1"/>
-      <c r="I190" s="6">
-        <v>44969.068055555559</v>
+      <c r="I190" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="J190" s="6">
         <v>44969.068055555559</v>
       </c>
-      <c r="L190" s="2">
+      <c r="K190" s="6">
+        <v>44969.068055555559</v>
+      </c>
+      <c r="M190" s="2">
         <v>5</v>
       </c>
-      <c r="M190" s="1"/>
-      <c r="N190" s="11">
+      <c r="N190" s="1"/>
+      <c r="O190" s="11">
         <v>15.833333333333332</v>
       </c>
-      <c r="O190" s="1"/>
-      <c r="P190" s="11">
+      <c r="P190" s="1"/>
+      <c r="Q190" s="11">
         <v>47.5</v>
       </c>
-      <c r="Q190" s="13">
+      <c r="R190" s="13">
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="2" t="s">
         <v>192</v>
@@ -9965,28 +10565,31 @@
         <v>18</v>
       </c>
       <c r="H191" s="1"/>
-      <c r="I191" s="6">
-        <v>44970.068055555559</v>
+      <c r="I191" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="J191" s="6">
         <v>44970.068055555559</v>
       </c>
-      <c r="L191" s="2">
+      <c r="K191" s="6">
+        <v>44970.068055555559</v>
+      </c>
+      <c r="M191" s="2">
         <v>5</v>
       </c>
-      <c r="M191" s="1"/>
-      <c r="N191" s="11">
+      <c r="N191" s="1"/>
+      <c r="O191" s="11">
         <v>18.75</v>
       </c>
-      <c r="O191" s="1"/>
-      <c r="P191" s="11">
+      <c r="P191" s="1"/>
+      <c r="Q191" s="11">
         <v>56.25</v>
       </c>
-      <c r="Q191" s="13">
+      <c r="R191" s="13">
         <v>7.5</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="2" t="s">
         <v>193</v>
@@ -10007,28 +10610,31 @@
         <v>3</v>
       </c>
       <c r="H192" s="1"/>
-      <c r="I192" s="6">
-        <v>44971.068055555559</v>
+      <c r="I192" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="J192" s="6">
         <v>44971.068055555559</v>
       </c>
-      <c r="L192" s="2">
+      <c r="K192" s="6">
+        <v>44971.068055555559</v>
+      </c>
+      <c r="M192" s="2">
         <v>5</v>
       </c>
-      <c r="M192" s="1"/>
-      <c r="N192" s="11">
+      <c r="N192" s="1"/>
+      <c r="O192" s="11">
         <v>21.25</v>
       </c>
-      <c r="O192" s="1"/>
-      <c r="P192" s="11">
+      <c r="P192" s="1"/>
+      <c r="Q192" s="11">
         <v>63.75</v>
       </c>
-      <c r="Q192" s="13">
+      <c r="R192" s="13">
         <v>8.5</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="2" t="s">
         <v>194</v>
@@ -10049,28 +10655,31 @@
         <v>56</v>
       </c>
       <c r="H193" s="1"/>
-      <c r="I193" s="6">
-        <v>44972.068055555559</v>
+      <c r="I193" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="J193" s="6">
         <v>44972.068055555559</v>
       </c>
-      <c r="L193" s="2">
+      <c r="K193" s="6">
+        <v>44972.068055555559</v>
+      </c>
+      <c r="M193" s="2">
         <v>5</v>
       </c>
-      <c r="M193" s="1"/>
-      <c r="N193" s="11">
+      <c r="N193" s="1"/>
+      <c r="O193" s="11">
         <v>15.208333333333332</v>
       </c>
-      <c r="O193" s="1"/>
-      <c r="P193" s="11">
+      <c r="P193" s="1"/>
+      <c r="Q193" s="11">
         <v>45.625</v>
       </c>
-      <c r="Q193" s="13">
+      <c r="R193" s="13">
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="2" t="s">
         <v>195</v>
@@ -10091,28 +10700,31 @@
         <v>68</v>
       </c>
       <c r="H194" s="1"/>
-      <c r="I194" s="6">
-        <v>44973.068055555559</v>
+      <c r="I194" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="J194" s="6">
         <v>44973.068055555559</v>
       </c>
-      <c r="L194" s="2">
+      <c r="K194" s="6">
+        <v>44973.068055555559</v>
+      </c>
+      <c r="M194" s="2">
         <v>5</v>
       </c>
-      <c r="M194" s="1"/>
-      <c r="N194" s="11">
+      <c r="N194" s="1"/>
+      <c r="O194" s="11">
         <v>23.125</v>
       </c>
-      <c r="O194" s="1"/>
-      <c r="P194" s="11">
+      <c r="P194" s="1"/>
+      <c r="Q194" s="11">
         <v>69.375</v>
       </c>
-      <c r="Q194" s="13">
+      <c r="R194" s="13">
         <v>9.25</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="2" t="s">
         <v>196</v>
@@ -10133,28 +10745,31 @@
         <v>77</v>
       </c>
       <c r="H195" s="1"/>
-      <c r="I195" s="6">
-        <v>44974.068055555559</v>
+      <c r="I195" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="J195" s="6">
         <v>44974.068055555559</v>
       </c>
-      <c r="L195" s="2">
+      <c r="K195" s="6">
+        <v>44974.068055555559</v>
+      </c>
+      <c r="M195" s="2">
         <v>5</v>
       </c>
-      <c r="M195" s="1"/>
-      <c r="N195" s="11">
+      <c r="N195" s="1"/>
+      <c r="O195" s="11">
         <v>23.333333333333336</v>
       </c>
-      <c r="O195" s="1"/>
-      <c r="P195" s="11">
+      <c r="P195" s="1"/>
+      <c r="Q195" s="11">
         <v>70</v>
       </c>
-      <c r="Q195" s="13">
+      <c r="R195" s="13">
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="2" t="s">
         <v>197</v>
@@ -10175,28 +10790,31 @@
         <v>5</v>
       </c>
       <c r="H196" s="1"/>
-      <c r="I196" s="6">
-        <v>44975.068055555559</v>
+      <c r="I196" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="J196" s="6">
         <v>44975.068055555559</v>
       </c>
-      <c r="L196" s="2">
+      <c r="K196" s="6">
+        <v>44975.068055555559</v>
+      </c>
+      <c r="M196" s="2">
         <v>5</v>
       </c>
-      <c r="M196" s="1"/>
-      <c r="N196" s="11">
+      <c r="N196" s="1"/>
+      <c r="O196" s="11">
         <v>23.333333333333336</v>
       </c>
-      <c r="O196" s="1"/>
-      <c r="P196" s="11">
+      <c r="P196" s="1"/>
+      <c r="Q196" s="11">
         <v>70</v>
       </c>
-      <c r="Q196" s="13">
+      <c r="R196" s="13">
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="2" t="s">
         <v>198</v>
@@ -10217,28 +10835,31 @@
         <v>21</v>
       </c>
       <c r="H197" s="1"/>
-      <c r="I197" s="6">
-        <v>44976.068055555559</v>
+      <c r="I197" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="J197" s="6">
         <v>44976.068055555559</v>
       </c>
-      <c r="L197" s="2">
+      <c r="K197" s="6">
+        <v>44976.068055555559</v>
+      </c>
+      <c r="M197" s="2">
         <v>5</v>
       </c>
-      <c r="M197" s="1"/>
-      <c r="N197" s="11">
+      <c r="N197" s="1"/>
+      <c r="O197" s="11">
         <v>17.916666666666668</v>
       </c>
-      <c r="O197" s="1"/>
-      <c r="P197" s="11">
+      <c r="P197" s="1"/>
+      <c r="Q197" s="11">
         <v>53.75</v>
       </c>
-      <c r="Q197" s="13">
+      <c r="R197" s="13">
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="2" t="s">
         <v>199</v>
@@ -10259,28 +10880,31 @@
         <v>78</v>
       </c>
       <c r="H198" s="1"/>
-      <c r="I198" s="6">
-        <v>44977.068055555559</v>
+      <c r="I198" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J198" s="6">
         <v>44977.068055555559</v>
       </c>
-      <c r="L198" s="2">
-        <v>3</v>
-      </c>
-      <c r="M198" s="1"/>
-      <c r="N198" s="11">
+      <c r="K198" s="6">
+        <v>44977.068055555559</v>
+      </c>
+      <c r="M198" s="2">
+        <v>3</v>
+      </c>
+      <c r="N198" s="1"/>
+      <c r="O198" s="11">
         <v>8</v>
       </c>
-      <c r="O198" s="1"/>
-      <c r="P198" s="11">
+      <c r="P198" s="1"/>
+      <c r="Q198" s="11">
         <v>24</v>
       </c>
-      <c r="Q198" s="13">
+      <c r="R198" s="13">
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="2" t="s">
         <v>200</v>
@@ -10301,28 +10925,31 @@
         <v>15</v>
       </c>
       <c r="H199" s="1"/>
-      <c r="I199" s="6">
-        <v>44978.068055555559</v>
+      <c r="I199" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J199" s="6">
         <v>44978.068055555559</v>
       </c>
-      <c r="L199" s="2">
-        <v>3</v>
-      </c>
-      <c r="M199" s="1"/>
-      <c r="N199" s="11">
+      <c r="K199" s="6">
+        <v>44978.068055555559</v>
+      </c>
+      <c r="M199" s="2">
+        <v>3</v>
+      </c>
+      <c r="N199" s="1"/>
+      <c r="O199" s="11">
         <v>9.75</v>
       </c>
-      <c r="O199" s="1"/>
-      <c r="P199" s="11">
+      <c r="P199" s="1"/>
+      <c r="Q199" s="11">
         <v>29.25</v>
       </c>
-      <c r="Q199" s="13">
+      <c r="R199" s="13">
         <v>6.5</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="2" t="s">
         <v>201</v>
@@ -10343,28 +10970,31 @@
         <v>10</v>
       </c>
       <c r="H200" s="1"/>
-      <c r="I200" s="6">
-        <v>44979.068055555559</v>
+      <c r="I200" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="J200" s="6">
         <v>44979.068055555559</v>
       </c>
-      <c r="L200" s="2">
-        <v>3</v>
-      </c>
-      <c r="M200" s="1"/>
-      <c r="N200" s="11">
+      <c r="K200" s="6">
+        <v>44979.068055555559</v>
+      </c>
+      <c r="M200" s="2">
+        <v>3</v>
+      </c>
+      <c r="N200" s="1"/>
+      <c r="O200" s="11">
         <v>8.375</v>
       </c>
-      <c r="O200" s="1"/>
-      <c r="P200" s="11">
+      <c r="P200" s="1"/>
+      <c r="Q200" s="11">
         <v>25.125</v>
       </c>
-      <c r="Q200" s="13">
+      <c r="R200" s="13">
         <v>5.583333333333333</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="2" t="s">
         <v>202</v>
@@ -10385,28 +11015,31 @@
         <v>19</v>
       </c>
       <c r="H201" s="1"/>
-      <c r="I201" s="6">
-        <v>44980.068055555559</v>
+      <c r="I201" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J201" s="6">
         <v>44980.068055555559</v>
       </c>
-      <c r="L201" s="2">
-        <v>3</v>
-      </c>
-      <c r="M201" s="1"/>
-      <c r="N201" s="11">
+      <c r="K201" s="6">
+        <v>44980.068055555559</v>
+      </c>
+      <c r="M201" s="2">
+        <v>3</v>
+      </c>
+      <c r="N201" s="1"/>
+      <c r="O201" s="11">
         <v>10.75</v>
       </c>
-      <c r="O201" s="1"/>
-      <c r="P201" s="11">
+      <c r="P201" s="1"/>
+      <c r="Q201" s="11">
         <v>32.25</v>
       </c>
-      <c r="Q201" s="13">
+      <c r="R201" s="13">
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="2" t="s">
         <v>203</v>
@@ -10427,28 +11060,31 @@
         <v>35</v>
       </c>
       <c r="H202" s="1"/>
-      <c r="I202" s="6">
-        <v>44981.068055555559</v>
+      <c r="I202" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="J202" s="6">
         <v>44981.068055555559</v>
       </c>
-      <c r="L202" s="2">
-        <v>3</v>
-      </c>
-      <c r="M202" s="1"/>
-      <c r="N202" s="11">
+      <c r="K202" s="6">
+        <v>44981.068055555559</v>
+      </c>
+      <c r="M202" s="2">
+        <v>3</v>
+      </c>
+      <c r="N202" s="1"/>
+      <c r="O202" s="11">
         <v>12.375</v>
       </c>
-      <c r="O202" s="1"/>
-      <c r="P202" s="11">
+      <c r="P202" s="1"/>
+      <c r="Q202" s="11">
         <v>37.125</v>
       </c>
-      <c r="Q202" s="13">
+      <c r="R202" s="13">
         <v>8.25</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="2" t="s">
         <v>204</v>
@@ -10469,28 +11105,31 @@
         <v>57</v>
       </c>
       <c r="H203" s="1"/>
-      <c r="I203" s="6">
-        <v>44982.068055555559</v>
+      <c r="I203" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="J203" s="6">
         <v>44982.068055555559</v>
       </c>
-      <c r="L203" s="2">
+      <c r="K203" s="6">
+        <v>44982.068055555559</v>
+      </c>
+      <c r="M203" s="2">
         <v>5</v>
       </c>
-      <c r="M203" s="1"/>
-      <c r="N203" s="11">
+      <c r="N203" s="1"/>
+      <c r="O203" s="11">
         <v>14.166666666666668</v>
       </c>
-      <c r="O203" s="1"/>
-      <c r="P203" s="11">
+      <c r="P203" s="1"/>
+      <c r="Q203" s="11">
         <v>42.5</v>
       </c>
-      <c r="Q203" s="13">
+      <c r="R203" s="13">
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="2" t="s">
         <v>205</v>
@@ -10511,28 +11150,31 @@
         <v>3</v>
       </c>
       <c r="H204" s="1"/>
-      <c r="I204" s="6">
-        <v>44983.068055555559</v>
+      <c r="I204" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="J204" s="6">
         <v>44983.068055555559</v>
       </c>
-      <c r="L204" s="2">
+      <c r="K204" s="6">
+        <v>44983.068055555559</v>
+      </c>
+      <c r="M204" s="2">
         <v>5</v>
       </c>
-      <c r="M204" s="1"/>
-      <c r="N204" s="11">
+      <c r="N204" s="1"/>
+      <c r="O204" s="11">
         <v>17.708333333333332</v>
       </c>
-      <c r="O204" s="1"/>
-      <c r="P204" s="11">
+      <c r="P204" s="1"/>
+      <c r="Q204" s="11">
         <v>53.125</v>
       </c>
-      <c r="Q204" s="13">
+      <c r="R204" s="13">
         <v>7.083333333333333</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="2" t="s">
         <v>206</v>
@@ -10553,28 +11195,31 @@
         <v>74</v>
       </c>
       <c r="H205" s="1"/>
-      <c r="I205" s="6">
-        <v>44984.068055555559</v>
+      <c r="I205" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="J205" s="6">
         <v>44984.068055555559</v>
       </c>
-      <c r="L205" s="2">
+      <c r="K205" s="6">
+        <v>44984.068055555559</v>
+      </c>
+      <c r="M205" s="2">
         <v>5</v>
       </c>
-      <c r="M205" s="1"/>
-      <c r="N205" s="11">
+      <c r="N205" s="1"/>
+      <c r="O205" s="11">
         <v>16.458333333333332</v>
       </c>
-      <c r="O205" s="1"/>
-      <c r="P205" s="11">
+      <c r="P205" s="1"/>
+      <c r="Q205" s="11">
         <v>49.375</v>
       </c>
-      <c r="Q205" s="13">
+      <c r="R205" s="13">
         <v>6.583333333333333</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="2" t="s">
         <v>207</v>
@@ -10595,28 +11240,31 @@
         <v>63</v>
       </c>
       <c r="H206" s="1"/>
-      <c r="I206" s="6">
-        <v>44985.068055555559</v>
+      <c r="I206" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="J206" s="6">
         <v>44985.068055555559</v>
       </c>
-      <c r="L206" s="2">
+      <c r="K206" s="6">
+        <v>44985.068055555559</v>
+      </c>
+      <c r="M206" s="2">
         <v>5</v>
       </c>
-      <c r="M206" s="1"/>
-      <c r="N206" s="11">
+      <c r="N206" s="1"/>
+      <c r="O206" s="11">
         <v>23.75</v>
       </c>
-      <c r="O206" s="1"/>
-      <c r="P206" s="11">
+      <c r="P206" s="1"/>
+      <c r="Q206" s="11">
         <v>71.25</v>
       </c>
-      <c r="Q206" s="13">
+      <c r="R206" s="13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="2" t="s">
         <v>208</v>
@@ -10637,28 +11285,31 @@
         <v>46</v>
       </c>
       <c r="H207" s="1"/>
-      <c r="I207" s="6">
-        <v>44986.068055555559</v>
+      <c r="I207" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="J207" s="6">
         <v>44986.068055555559</v>
       </c>
-      <c r="L207" s="2">
+      <c r="K207" s="6">
+        <v>44986.068055555559</v>
+      </c>
+      <c r="M207" s="2">
         <v>5</v>
       </c>
-      <c r="M207" s="1"/>
-      <c r="N207" s="11">
+      <c r="N207" s="1"/>
+      <c r="O207" s="11">
         <v>17.916666666666668</v>
       </c>
-      <c r="O207" s="1"/>
-      <c r="P207" s="11">
+      <c r="P207" s="1"/>
+      <c r="Q207" s="11">
         <v>53.75</v>
       </c>
-      <c r="Q207" s="13">
+      <c r="R207" s="13">
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="2" t="s">
         <v>209</v>
@@ -10679,28 +11330,31 @@
         <v>23</v>
       </c>
       <c r="H208" s="1"/>
-      <c r="I208" s="6">
-        <v>44987.068055555559</v>
+      <c r="I208" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J208" s="6">
         <v>44987.068055555559</v>
       </c>
-      <c r="L208" s="2">
+      <c r="K208" s="6">
+        <v>44987.068055555559</v>
+      </c>
+      <c r="M208" s="2">
         <v>5</v>
       </c>
-      <c r="M208" s="1"/>
-      <c r="N208" s="11">
+      <c r="N208" s="1"/>
+      <c r="O208" s="11">
         <v>23.333333333333336</v>
       </c>
-      <c r="O208" s="1"/>
-      <c r="P208" s="11">
+      <c r="P208" s="1"/>
+      <c r="Q208" s="11">
         <v>70</v>
       </c>
-      <c r="Q208" s="13">
+      <c r="R208" s="13">
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="2" t="s">
         <v>210</v>
@@ -10721,28 +11375,31 @@
         <v>62</v>
       </c>
       <c r="H209" s="1"/>
-      <c r="I209" s="6">
-        <v>44988.068055555559</v>
+      <c r="I209" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J209" s="6">
         <v>44988.068055555559</v>
       </c>
-      <c r="L209" s="2">
-        <v>3</v>
-      </c>
-      <c r="M209" s="1"/>
-      <c r="N209" s="11">
+      <c r="K209" s="6">
+        <v>44988.068055555559</v>
+      </c>
+      <c r="M209" s="2">
+        <v>3</v>
+      </c>
+      <c r="N209" s="1"/>
+      <c r="O209" s="11">
         <v>10.625</v>
       </c>
-      <c r="O209" s="1"/>
-      <c r="P209" s="11">
+      <c r="P209" s="1"/>
+      <c r="Q209" s="11">
         <v>31.875</v>
       </c>
-      <c r="Q209" s="13">
+      <c r="R209" s="13">
         <v>7.083333333333333</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="2" t="s">
         <v>211</v>
@@ -10763,28 +11420,31 @@
         <v>38</v>
       </c>
       <c r="H210" s="1"/>
-      <c r="I210" s="6">
-        <v>44989.068055555559</v>
+      <c r="I210" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J210" s="6">
         <v>44989.068055555559</v>
       </c>
-      <c r="L210" s="2">
-        <v>3</v>
-      </c>
-      <c r="M210" s="1"/>
-      <c r="N210" s="11">
+      <c r="K210" s="6">
+        <v>44989.068055555559</v>
+      </c>
+      <c r="M210" s="2">
+        <v>3</v>
+      </c>
+      <c r="N210" s="1"/>
+      <c r="O210" s="11">
         <v>11.5</v>
       </c>
-      <c r="O210" s="1"/>
-      <c r="P210" s="11">
+      <c r="P210" s="1"/>
+      <c r="Q210" s="11">
         <v>34.5</v>
       </c>
-      <c r="Q210" s="13">
+      <c r="R210" s="13">
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="2" t="s">
         <v>212</v>
@@ -10805,28 +11465,31 @@
         <v>73</v>
       </c>
       <c r="H211" s="1"/>
-      <c r="I211" s="6">
-        <v>44990.068055555559</v>
+      <c r="I211" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J211" s="6">
         <v>44990.068055555559</v>
       </c>
-      <c r="L211" s="2">
-        <v>3</v>
-      </c>
-      <c r="M211" s="1"/>
-      <c r="N211" s="11">
+      <c r="K211" s="6">
+        <v>44990.068055555559</v>
+      </c>
+      <c r="M211" s="2">
+        <v>3</v>
+      </c>
+      <c r="N211" s="1"/>
+      <c r="O211" s="11">
         <v>11.375</v>
       </c>
-      <c r="O211" s="1"/>
-      <c r="P211" s="11">
+      <c r="P211" s="1"/>
+      <c r="Q211" s="11">
         <v>34.125</v>
       </c>
-      <c r="Q211" s="13">
+      <c r="R211" s="13">
         <v>7.583333333333333</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="2" t="s">
         <v>213</v>
@@ -10847,28 +11510,31 @@
         <v>6</v>
       </c>
       <c r="H212" s="1"/>
-      <c r="I212" s="6">
-        <v>44991.068055555559</v>
+      <c r="I212" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="J212" s="6">
         <v>44991.068055555559</v>
       </c>
-      <c r="L212" s="2">
+      <c r="K212" s="6">
+        <v>44991.068055555559</v>
+      </c>
+      <c r="M212" s="2">
         <v>5</v>
       </c>
-      <c r="M212" s="1"/>
-      <c r="N212" s="11">
+      <c r="N212" s="1"/>
+      <c r="O212" s="11">
         <v>11.666666666666668</v>
       </c>
-      <c r="O212" s="1"/>
-      <c r="P212" s="11">
+      <c r="P212" s="1"/>
+      <c r="Q212" s="11">
         <v>35</v>
       </c>
-      <c r="Q212" s="13">
+      <c r="R212" s="13">
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="2" t="s">
         <v>214</v>
@@ -10889,28 +11555,31 @@
         <v>77</v>
       </c>
       <c r="H213" s="1"/>
-      <c r="I213" s="6">
-        <v>44992.068055555559</v>
+      <c r="I213" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="J213" s="6">
         <v>44992.068055555559</v>
       </c>
-      <c r="L213" s="2">
+      <c r="K213" s="6">
+        <v>44992.068055555559</v>
+      </c>
+      <c r="M213" s="2">
         <v>5</v>
       </c>
-      <c r="M213" s="1"/>
-      <c r="N213" s="11">
+      <c r="N213" s="1"/>
+      <c r="O213" s="11">
         <v>25.625</v>
       </c>
-      <c r="O213" s="1"/>
-      <c r="P213" s="11">
+      <c r="P213" s="1"/>
+      <c r="Q213" s="11">
         <v>76.875</v>
       </c>
-      <c r="Q213" s="13">
+      <c r="R213" s="13">
         <v>10.25</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="2" t="s">
         <v>215</v>
@@ -10931,28 +11600,31 @@
         <v>13</v>
       </c>
       <c r="H214" s="1"/>
-      <c r="I214" s="6">
-        <v>44993.068055555559</v>
+      <c r="I214" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="J214" s="6">
         <v>44993.068055555559</v>
       </c>
-      <c r="L214" s="2">
+      <c r="K214" s="6">
+        <v>44993.068055555559</v>
+      </c>
+      <c r="M214" s="2">
         <v>5</v>
       </c>
-      <c r="M214" s="1"/>
-      <c r="N214" s="11">
+      <c r="N214" s="1"/>
+      <c r="O214" s="11">
         <v>14.375</v>
       </c>
-      <c r="O214" s="1"/>
-      <c r="P214" s="11">
+      <c r="P214" s="1"/>
+      <c r="Q214" s="11">
         <v>43.125</v>
       </c>
-      <c r="Q214" s="13">
+      <c r="R214" s="13">
         <v>5.75</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="2" t="s">
         <v>216</v>
@@ -10973,28 +11645,31 @@
         <v>33</v>
       </c>
       <c r="H215" s="1"/>
-      <c r="I215" s="6">
-        <v>44994.068055555559</v>
+      <c r="I215" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="J215" s="6">
         <v>44994.068055555559</v>
       </c>
-      <c r="L215" s="2">
+      <c r="K215" s="6">
+        <v>44994.068055555559</v>
+      </c>
+      <c r="M215" s="2">
         <v>5</v>
       </c>
-      <c r="M215" s="1"/>
-      <c r="N215" s="11">
+      <c r="N215" s="1"/>
+      <c r="O215" s="11">
         <v>15.625</v>
       </c>
-      <c r="O215" s="1"/>
-      <c r="P215" s="11">
+      <c r="P215" s="1"/>
+      <c r="Q215" s="11">
         <v>46.875</v>
       </c>
-      <c r="Q215" s="13">
+      <c r="R215" s="13">
         <v>6.25</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="2" t="s">
         <v>217</v>
@@ -11015,28 +11690,31 @@
         <v>52</v>
       </c>
       <c r="H216" s="1"/>
-      <c r="I216" s="6">
-        <v>44995.068055555559</v>
+      <c r="I216" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="J216" s="6">
         <v>44995.068055555559</v>
       </c>
-      <c r="L216" s="2">
+      <c r="K216" s="6">
+        <v>44995.068055555559</v>
+      </c>
+      <c r="M216" s="2">
         <v>5</v>
       </c>
-      <c r="M216" s="1"/>
-      <c r="N216" s="11">
+      <c r="N216" s="1"/>
+      <c r="O216" s="11">
         <v>21.041666666666664</v>
       </c>
-      <c r="O216" s="1"/>
-      <c r="P216" s="11">
+      <c r="P216" s="1"/>
+      <c r="Q216" s="11">
         <v>63.124999999999993</v>
       </c>
-      <c r="Q216" s="13">
+      <c r="R216" s="13">
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="2" t="s">
         <v>218</v>
@@ -11057,28 +11735,31 @@
         <v>5</v>
       </c>
       <c r="H217" s="1"/>
-      <c r="I217" s="6">
-        <v>44996.068055555559</v>
+      <c r="I217" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J217" s="6">
         <v>44996.068055555559</v>
       </c>
-      <c r="L217" s="2">
-        <v>3</v>
-      </c>
-      <c r="M217" s="1"/>
-      <c r="N217" s="11">
+      <c r="K217" s="6">
+        <v>44996.068055555559</v>
+      </c>
+      <c r="M217" s="2">
+        <v>3</v>
+      </c>
+      <c r="N217" s="1"/>
+      <c r="O217" s="11">
         <v>9.5</v>
       </c>
-      <c r="O217" s="1"/>
-      <c r="P217" s="11">
+      <c r="P217" s="1"/>
+      <c r="Q217" s="11">
         <v>28.5</v>
       </c>
-      <c r="Q217" s="13">
+      <c r="R217" s="13">
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="2" t="s">
         <v>219</v>
@@ -11099,28 +11780,31 @@
         <v>67</v>
       </c>
       <c r="H218" s="1"/>
-      <c r="I218" s="6">
-        <v>44997.068055555559</v>
+      <c r="I218" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J218" s="6">
         <v>44997.068055555559</v>
       </c>
-      <c r="L218" s="2">
-        <v>3</v>
-      </c>
-      <c r="M218" s="1"/>
-      <c r="N218" s="11">
+      <c r="K218" s="6">
+        <v>44997.068055555559</v>
+      </c>
+      <c r="M218" s="2">
+        <v>3</v>
+      </c>
+      <c r="N218" s="1"/>
+      <c r="O218" s="11">
         <v>15.125</v>
       </c>
-      <c r="O218" s="1"/>
-      <c r="P218" s="11">
+      <c r="P218" s="1"/>
+      <c r="Q218" s="11">
         <v>45.375</v>
       </c>
-      <c r="Q218" s="13">
+      <c r="R218" s="13">
         <v>10.083333333333334</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="2" t="s">
         <v>220</v>
@@ -11141,28 +11825,31 @@
         <v>29</v>
       </c>
       <c r="H219" s="1"/>
-      <c r="I219" s="6">
-        <v>44998.068055555559</v>
+      <c r="I219" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J219" s="6">
         <v>44998.068055555559</v>
       </c>
-      <c r="L219" s="2">
-        <v>3</v>
-      </c>
-      <c r="M219" s="1"/>
-      <c r="N219" s="11">
+      <c r="K219" s="6">
+        <v>44998.068055555559</v>
+      </c>
+      <c r="M219" s="2">
+        <v>3</v>
+      </c>
+      <c r="N219" s="1"/>
+      <c r="O219" s="11">
         <v>7.875</v>
       </c>
-      <c r="O219" s="1"/>
-      <c r="P219" s="11">
+      <c r="P219" s="1"/>
+      <c r="Q219" s="11">
         <v>23.625</v>
       </c>
-      <c r="Q219" s="13">
+      <c r="R219" s="13">
         <v>5.25</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="2" t="s">
         <v>221</v>
@@ -11183,28 +11870,31 @@
         <v>29</v>
       </c>
       <c r="H220" s="1"/>
-      <c r="I220" s="6">
-        <v>44999.068055555559</v>
+      <c r="I220" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J220" s="6">
         <v>44999.068055555559</v>
       </c>
-      <c r="L220" s="2">
-        <v>3</v>
-      </c>
-      <c r="M220" s="1"/>
-      <c r="N220" s="11">
+      <c r="K220" s="6">
+        <v>44999.068055555559</v>
+      </c>
+      <c r="M220" s="2">
+        <v>3</v>
+      </c>
+      <c r="N220" s="1"/>
+      <c r="O220" s="11">
         <v>9</v>
       </c>
-      <c r="O220" s="1"/>
-      <c r="P220" s="11">
+      <c r="P220" s="1"/>
+      <c r="Q220" s="11">
         <v>27</v>
       </c>
-      <c r="Q220" s="13">
+      <c r="R220" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="2" t="s">
         <v>222</v>
@@ -11225,28 +11915,31 @@
         <v>6</v>
       </c>
       <c r="H221" s="1"/>
-      <c r="I221" s="6">
-        <v>45000.068055555559</v>
+      <c r="I221" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J221" s="6">
         <v>45000.068055555559</v>
       </c>
-      <c r="L221" s="2">
-        <v>3</v>
-      </c>
-      <c r="M221" s="1"/>
-      <c r="N221" s="11">
+      <c r="K221" s="6">
+        <v>45000.068055555559</v>
+      </c>
+      <c r="M221" s="2">
+        <v>3</v>
+      </c>
+      <c r="N221" s="1"/>
+      <c r="O221" s="11">
         <v>7.5</v>
       </c>
-      <c r="O221" s="1"/>
-      <c r="P221" s="11">
+      <c r="P221" s="1"/>
+      <c r="Q221" s="11">
         <v>22.5</v>
       </c>
-      <c r="Q221" s="13">
+      <c r="R221" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="2" t="s">
         <v>223</v>
@@ -11267,28 +11960,31 @@
         <v>19</v>
       </c>
       <c r="H222" s="1"/>
-      <c r="I222" s="6">
-        <v>45001.068055555559</v>
+      <c r="I222" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J222" s="6">
         <v>45001.068055555559</v>
       </c>
-      <c r="L222" s="2">
-        <v>3</v>
-      </c>
-      <c r="M222" s="1"/>
-      <c r="N222" s="11">
+      <c r="K222" s="6">
+        <v>45001.068055555559</v>
+      </c>
+      <c r="M222" s="2">
+        <v>3</v>
+      </c>
+      <c r="N222" s="1"/>
+      <c r="O222" s="11">
         <v>13.875</v>
       </c>
-      <c r="O222" s="1"/>
-      <c r="P222" s="11">
+      <c r="P222" s="1"/>
+      <c r="Q222" s="11">
         <v>41.625</v>
       </c>
-      <c r="Q222" s="13">
+      <c r="R222" s="13">
         <v>9.25</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="2" t="s">
         <v>224</v>
@@ -11309,28 +12005,31 @@
         <v>20</v>
       </c>
       <c r="H223" s="1"/>
-      <c r="I223" s="6">
-        <v>45002.068055555559</v>
+      <c r="I223" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="J223" s="6">
         <v>45002.068055555559</v>
       </c>
-      <c r="L223" s="2">
-        <v>3</v>
-      </c>
-      <c r="M223" s="1"/>
-      <c r="N223" s="11">
+      <c r="K223" s="6">
+        <v>45002.068055555559</v>
+      </c>
+      <c r="M223" s="2">
+        <v>3</v>
+      </c>
+      <c r="N223" s="1"/>
+      <c r="O223" s="11">
         <v>11</v>
       </c>
-      <c r="O223" s="1"/>
-      <c r="P223" s="11">
+      <c r="P223" s="1"/>
+      <c r="Q223" s="11">
         <v>33</v>
       </c>
-      <c r="Q223" s="13">
+      <c r="R223" s="13">
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="2" t="s">
         <v>225</v>
@@ -11351,28 +12050,31 @@
         <v>61</v>
       </c>
       <c r="H224" s="1"/>
-      <c r="I224" s="6">
-        <v>45003.068055555559</v>
+      <c r="I224" s="14" t="s">
+        <v>494</v>
       </c>
       <c r="J224" s="6">
         <v>45003.068055555559</v>
       </c>
-      <c r="L224" s="2">
-        <v>3</v>
-      </c>
-      <c r="M224" s="1"/>
-      <c r="N224" s="11">
+      <c r="K224" s="6">
+        <v>45003.068055555559</v>
+      </c>
+      <c r="M224" s="2">
+        <v>3</v>
+      </c>
+      <c r="N224" s="1"/>
+      <c r="O224" s="11">
         <v>8.5</v>
       </c>
-      <c r="O224" s="1"/>
-      <c r="P224" s="11">
+      <c r="P224" s="1"/>
+      <c r="Q224" s="11">
         <v>25.5</v>
       </c>
-      <c r="Q224" s="13">
+      <c r="R224" s="13">
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="2" t="s">
         <v>226</v>
@@ -11393,28 +12095,31 @@
         <v>27</v>
       </c>
       <c r="H225" s="1"/>
-      <c r="I225" s="6">
-        <v>45004.068055555559</v>
+      <c r="I225" s="14" t="s">
+        <v>494</v>
       </c>
       <c r="J225" s="6">
         <v>45004.068055555559</v>
       </c>
-      <c r="L225" s="2">
-        <v>3</v>
-      </c>
-      <c r="M225" s="1"/>
-      <c r="N225" s="11">
+      <c r="K225" s="6">
+        <v>45004.068055555559</v>
+      </c>
+      <c r="M225" s="2">
+        <v>3</v>
+      </c>
+      <c r="N225" s="1"/>
+      <c r="O225" s="11">
         <v>13.125</v>
       </c>
-      <c r="O225" s="1"/>
-      <c r="P225" s="11">
+      <c r="P225" s="1"/>
+      <c r="Q225" s="11">
         <v>39.375</v>
       </c>
-      <c r="Q225" s="13">
+      <c r="R225" s="13">
         <v>8.75</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="2" t="s">
         <v>227</v>
@@ -11435,28 +12140,31 @@
         <v>47</v>
       </c>
       <c r="H226" s="1"/>
-      <c r="I226" s="6">
-        <v>45005.068055555559</v>
+      <c r="I226" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="J226" s="6">
         <v>45005.068055555559</v>
       </c>
-      <c r="L226" s="2">
+      <c r="K226" s="6">
+        <v>45005.068055555559</v>
+      </c>
+      <c r="M226" s="2">
         <v>5</v>
       </c>
-      <c r="M226" s="1"/>
-      <c r="N226" s="11">
+      <c r="N226" s="1"/>
+      <c r="O226" s="11">
         <v>12.291666666666668</v>
       </c>
-      <c r="O226" s="1"/>
-      <c r="P226" s="11">
+      <c r="P226" s="1"/>
+      <c r="Q226" s="11">
         <v>36.875</v>
       </c>
-      <c r="Q226" s="13">
+      <c r="R226" s="13">
         <v>4.916666666666667</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="2" t="s">
         <v>228</v>
@@ -11477,24 +12185,27 @@
         <v>56</v>
       </c>
       <c r="H227" s="1"/>
-      <c r="I227" s="6">
-        <v>45006.068055555559</v>
+      <c r="I227" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="J227" s="6">
         <v>45006.068055555559</v>
       </c>
-      <c r="L227" s="2">
+      <c r="K227" s="6">
+        <v>45006.068055555559</v>
+      </c>
+      <c r="M227" s="2">
         <v>5</v>
       </c>
-      <c r="M227" s="1"/>
-      <c r="N227" s="11">
+      <c r="N227" s="1"/>
+      <c r="O227" s="11">
         <v>24.375</v>
       </c>
-      <c r="O227" s="1"/>
-      <c r="P227" s="11">
+      <c r="P227" s="1"/>
+      <c r="Q227" s="11">
         <v>73.125</v>
       </c>
-      <c r="Q227" s="13">
+      <c r="R227" s="13">
         <v>9.75</v>
       </c>
     </row>
